--- a/Stage2/Benchmark Histogram.xlsx
+++ b/Stage2/Benchmark Histogram.xlsx
@@ -70,9 +70,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,10 +292,13 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -317,1757 +321,1757 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.27777777777777701</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.27777777777777701</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.27777777777777701</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.29649572649572598</v>
+        <v>1.9316239316239301E-2</v>
       </c>
       <c r="F2">
-        <v>0.29378205128205098</v>
+        <v>1.6292735042734999E-2</v>
       </c>
       <c r="G2">
-        <v>0.27777777777777701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0.27777777777777701</v>
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.27777777777777701</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.27778846153846098</v>
+        <v>1.0683760683760701E-5</v>
       </c>
       <c r="E3" s="1">
-        <v>0.29658119658119603</v>
+        <v>1.9818376068376001E-2</v>
       </c>
       <c r="F3">
-        <v>0.29445512820512798</v>
+        <v>1.7606837606837601E-2</v>
       </c>
       <c r="G3">
-        <v>0.27777777777777701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0.27777777777777701</v>
+      <c r="A4">
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.27778846153846098</v>
+        <v>1.0683760683760701E-5</v>
       </c>
       <c r="C4">
-        <v>0.27782051282051201</v>
+        <v>4.2735042735042701E-5</v>
       </c>
       <c r="E4" s="1">
-        <v>0.29714743589743497</v>
+        <v>2.0694444444444401E-2</v>
       </c>
       <c r="F4">
-        <v>0.29579059829059801</v>
-      </c>
-      <c r="G4">
-        <v>0.27810897435897403</v>
+        <v>2.4572649572649499E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.3119658119658101E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.27777777777777701</v>
+      <c r="A5">
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.27778846153846098</v>
+        <v>1.0683760683760701E-5</v>
       </c>
       <c r="C5">
-        <v>0.27794871794871701</v>
+        <v>1.7094017094017094E-4</v>
       </c>
       <c r="E5" s="1">
-        <v>0.29802350427350399</v>
+        <v>2.1965811965811901E-2</v>
       </c>
       <c r="F5">
-        <v>0.29993589743589699</v>
+        <v>3.3920940170940099E-2</v>
       </c>
       <c r="G5">
-        <v>0.282510683760683</v>
+        <v>4.7329059829059796E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.27777777777777701</v>
+      <c r="A6">
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.27778846153846098</v>
+        <v>1.0683760683760701E-5</v>
       </c>
       <c r="C6">
-        <v>0.27849358974358901</v>
+        <v>7.1581196581196578E-4</v>
       </c>
       <c r="E6" s="1">
-        <v>0.29934829059828999</v>
+        <v>2.3760683760683701E-2</v>
       </c>
       <c r="F6">
-        <v>0.322628205128205</v>
+        <v>7.1175213675213594E-2</v>
       </c>
       <c r="G6">
-        <v>0.30191239316239299</v>
+        <v>2.41346153846153E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.27780982905982898</v>
+      <c r="A7">
+        <v>3.2051282051282099E-5</v>
       </c>
       <c r="B7">
-        <v>0.27786324786324701</v>
+        <v>8.5470085470085497E-5</v>
       </c>
       <c r="C7">
-        <v>0.28036324786324701</v>
+        <v>2.5854700854700853E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.30080128205128198</v>
+        <v>2.5886752136752102E-2</v>
       </c>
       <c r="F7">
-        <v>0.36654914529914501</v>
+        <v>0.13732905982905899</v>
       </c>
       <c r="G7">
-        <v>0.334818376068376</v>
+        <v>5.7040598290598203E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.27813034188034103</v>
+      <c r="A8">
+        <v>3.5256410256410259E-4</v>
       </c>
       <c r="B8">
-        <v>0.27818376068376</v>
+        <v>4.0598290598290598E-4</v>
       </c>
       <c r="C8">
-        <v>0.28469017094017002</v>
+        <v>6.9123931623931625E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.302329059829059</v>
+        <v>2.8044871794871699E-2</v>
       </c>
       <c r="F8">
-        <v>0.39770299145299098</v>
+        <v>0.188867521367521</v>
       </c>
       <c r="G8">
-        <v>0.35887820512820501</v>
+        <v>8.1100427350427301E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.27974358974358898</v>
+      <c r="A9">
+        <v>1.965811965811966E-3</v>
       </c>
       <c r="B9">
-        <v>0.27980769230769198</v>
+        <v>2.0299145299145301E-3</v>
       </c>
       <c r="C9">
-        <v>0.29230769230769199</v>
+        <v>1.454059829059829E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.30451923076922999</v>
+        <v>3.1527777777777703E-2</v>
       </c>
       <c r="F9">
-        <v>0.41180555555555498</v>
+        <v>0.21443376068375999</v>
       </c>
       <c r="G9">
-        <v>0.389647435897435</v>
+        <v>0.111869658119658</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.28270299145299099</v>
+      <c r="A10">
+        <v>4.9252136752136752E-3</v>
       </c>
       <c r="B10">
-        <v>0.28293803418803398</v>
+        <v>5.1709401709401706E-3</v>
       </c>
       <c r="C10">
-        <v>0.30342948717948698</v>
+        <v>2.5683760683760683E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.30847222222222198</v>
+        <v>3.6623931623931599E-2</v>
       </c>
       <c r="F10">
-        <v>0.42051282051282002</v>
+        <v>0.228974358974358</v>
       </c>
       <c r="G10">
-        <v>0.40911324786324699</v>
+        <v>0.13133547008547</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.28737179487179398</v>
+      <c r="A11">
+        <v>9.5940170940170943E-3</v>
       </c>
       <c r="B11">
-        <v>0.28794871794871701</v>
+        <v>1.0202991452991453E-2</v>
       </c>
       <c r="C11">
-        <v>0.31755341880341798</v>
+        <v>3.9829059829059828E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.31201923076922999</v>
+        <v>4.1217948717948698E-2</v>
       </c>
       <c r="F11">
-        <v>0.42711538461538401</v>
+        <v>0.23628205128205099</v>
       </c>
       <c r="G11">
-        <v>0.43553418803418797</v>
+        <v>0.15775641025640999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.294700854700854</v>
+      <c r="A12">
+        <v>1.6923076923076923E-2</v>
       </c>
       <c r="B12">
-        <v>0.29573717948717898</v>
+        <v>1.7991452991452991E-2</v>
       </c>
       <c r="C12">
-        <v>0.333450854700854</v>
+        <v>5.5822649572649576E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.31889957264957203</v>
+        <v>4.94871794871794E-2</v>
       </c>
       <c r="F12">
-        <v>0.43494658119658097</v>
+        <v>0.244337606837606</v>
       </c>
       <c r="G12">
-        <v>0.45066239316239298</v>
+        <v>0.172884615384615</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.30355769230769197</v>
+      <c r="A13">
+        <v>2.577991452991453E-2</v>
       </c>
       <c r="B13">
-        <v>0.30571581196581199</v>
+        <v>2.7991452991452993E-2</v>
       </c>
       <c r="C13">
-        <v>0.348814102564102</v>
+        <v>7.1378205128205127E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.32407051282051202</v>
+        <v>5.5470085470085403E-2</v>
       </c>
       <c r="F13">
-        <v>0.44540598290598199</v>
+        <v>0.25495726495726401</v>
       </c>
       <c r="G13">
-        <v>0.46799145299145301</v>
+        <v>0.19021367521367499</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.31362179487179398</v>
+      <c r="A14">
+        <v>3.5844017094017092E-2</v>
       </c>
       <c r="B14">
-        <v>0.31816239316239298</v>
+        <v>4.0491452991452993E-2</v>
       </c>
       <c r="C14">
-        <v>0.36466880341880298</v>
+        <v>8.7361111111111112E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.34085470085469999</v>
+        <v>7.3557692307692296E-2</v>
       </c>
       <c r="F14">
-        <v>0.45448717948717898</v>
+        <v>0.26423076923076899</v>
       </c>
       <c r="G14">
-        <v>0.47606837606837599</v>
+        <v>0.198290598290598</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.32482905982905902</v>
+      <c r="A15">
+        <v>4.7051282051282048E-2</v>
       </c>
       <c r="B15">
-        <v>0.33247863247863202</v>
+        <v>5.4893162393162394E-2</v>
       </c>
       <c r="C15">
-        <v>0.38061965811965798</v>
+        <v>0.10355769230769231</v>
       </c>
       <c r="E15" s="1">
-        <v>0.349529914529914</v>
+        <v>8.3226495726495694E-2</v>
       </c>
       <c r="F15">
-        <v>0.47104700854700798</v>
+        <v>0.28090811965811902</v>
       </c>
       <c r="G15">
-        <v>0.485961538461538</v>
+        <v>0.20818376068375999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.33724358974358898</v>
+      <c r="A16">
+        <v>5.9465811965811965E-2</v>
       </c>
       <c r="B16">
-        <v>0.347638888888888</v>
+        <v>7.0192307692307693E-2</v>
       </c>
       <c r="C16">
-        <v>0.39574786324786299</v>
+        <v>0.11881410256410256</v>
       </c>
       <c r="E16" s="1">
-        <v>0.35801282051282002</v>
+        <v>9.2510683760683707E-2</v>
       </c>
       <c r="F16">
-        <v>0.48422008547008499</v>
+        <v>0.29423076923076902</v>
       </c>
       <c r="G16">
-        <v>0.49208333333333298</v>
+        <v>0.214305555555555</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.349465811965811</v>
+      <c r="A17">
+        <v>7.1688034188034183E-2</v>
       </c>
       <c r="B17">
-        <v>0.36316239316239302</v>
+        <v>8.5876068376068371E-2</v>
       </c>
       <c r="C17">
-        <v>0.40962606837606802</v>
+        <v>0.13289529914529916</v>
       </c>
       <c r="E17" s="1">
-        <v>0.37375000000000003</v>
+        <v>0.10985042735042699</v>
       </c>
       <c r="F17">
-        <v>0.49559829059829003</v>
+        <v>0.30586538461538398</v>
       </c>
       <c r="G17">
-        <v>0.49868589743589697</v>
+        <v>0.22099358974358899</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.360373931623931</v>
+      <c r="A18">
+        <v>8.2596153846153847E-2</v>
       </c>
       <c r="B18">
-        <v>0.37864316239316198</v>
+        <v>0.10148504273504273</v>
       </c>
       <c r="C18">
-        <v>0.42311965811965802</v>
+        <v>0.14660256410256411</v>
       </c>
       <c r="E18" s="1">
-        <v>0.388995726495726</v>
+        <v>0.12606837606837601</v>
       </c>
       <c r="F18">
-        <v>0.50064102564102497</v>
+        <v>0.311153846153846</v>
       </c>
       <c r="G18">
-        <v>0.50462606837606805</v>
+        <v>0.226944444444444</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.370502136752136</v>
+      <c r="A19">
+        <v>9.2724358974358975E-2</v>
       </c>
       <c r="B19">
-        <v>0.39228632478632403</v>
+        <v>0.1152991452991453</v>
       </c>
       <c r="C19">
-        <v>0.43533119658119601</v>
+        <v>0.15903846153846155</v>
       </c>
       <c r="E19" s="1">
-        <v>0.40111111111111097</v>
+        <v>0.140886752136752</v>
       </c>
       <c r="F19">
-        <v>0.51174145299145302</v>
+        <v>0.32242521367521298</v>
       </c>
       <c r="G19">
-        <v>0.50817307692307601</v>
+        <v>0.23052350427350399</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.38057692307692298</v>
+      <c r="A20">
+        <v>0.1027991452991453</v>
       </c>
       <c r="B20">
-        <v>0.40623931623931597</v>
+        <v>0.12941239316239317</v>
       </c>
       <c r="C20">
-        <v>0.44722222222222202</v>
+        <v>0.17114316239316241</v>
       </c>
       <c r="E20" s="1">
-        <v>0.42417735042735</v>
+        <v>0.16822649572649501</v>
       </c>
       <c r="F20">
-        <v>0.52131410256410204</v>
+        <v>0.33217948717948698</v>
       </c>
       <c r="G20">
-        <v>0.51302350427350396</v>
+        <v>0.23552350427350399</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.39077991452991401</v>
+      <c r="A21">
+        <v>0.11300213675213676</v>
       </c>
       <c r="B21">
-        <v>0.41958333333333298</v>
+        <v>0.14292735042735041</v>
       </c>
       <c r="C21">
-        <v>0.45829059829059798</v>
+        <v>0.18237179487179486</v>
       </c>
       <c r="E21" s="1">
-        <v>0.44725427350427299</v>
+        <v>0.19369658119658101</v>
       </c>
       <c r="F21">
-        <v>0.52642094017093999</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="G21">
-        <v>0.51618589743589705</v>
+        <v>0.23883547008546999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.40076923076922999</v>
+      <c r="A22">
+        <v>0.12299145299145299</v>
       </c>
       <c r="B22">
-        <v>0.43188034188034102</v>
+        <v>0.15538461538461537</v>
       </c>
       <c r="C22">
-        <v>0.46792735042735001</v>
+        <v>0.19228632478632479</v>
       </c>
       <c r="E22" s="1">
-        <v>0.47882478632478598</v>
+        <v>0.23522435897435801</v>
       </c>
       <c r="F22">
-        <v>0.53490384615384601</v>
+        <v>0.34633547008547</v>
       </c>
       <c r="G22">
-        <v>0.52092948717948695</v>
+        <v>0.24469017094017001</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.41017094017094002</v>
+      <c r="A23">
+        <v>0.1323931623931624</v>
       </c>
       <c r="B23">
-        <v>0.44348290598290502</v>
+        <v>0.16726495726495727</v>
       </c>
       <c r="C23">
-        <v>0.47683760683760601</v>
+        <v>0.20179487179487179</v>
       </c>
       <c r="E23" s="1">
-        <v>0.51496794871794804</v>
+        <v>0.27959401709401699</v>
       </c>
       <c r="F23">
-        <v>0.53897435897435897</v>
+        <v>0.35068376068376</v>
       </c>
       <c r="G23">
-        <v>0.52403846153846101</v>
+        <v>0.24973290598290501</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.41960470085469997</v>
+      <c r="A24">
+        <v>0.14182692307692307</v>
       </c>
       <c r="B24">
-        <v>0.45429487179487099</v>
+        <v>0.17829059829059829</v>
       </c>
       <c r="C24">
-        <v>0.48581196581196501</v>
+        <v>0.21202991452991454</v>
       </c>
       <c r="E24" s="1">
-        <v>0.55905982905982898</v>
+        <v>0.34073717948717902</v>
       </c>
       <c r="F24">
-        <v>0.54529914529914503</v>
+        <v>0.35738247863247802</v>
       </c>
       <c r="G24">
-        <v>0.52856837606837603</v>
+        <v>0.25775641025641</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.42813034188034099</v>
+      <c r="A25">
+        <v>0.15035256410256409</v>
       </c>
       <c r="B25">
-        <v>0.46454059829059802</v>
+        <v>0.18865384615384614</v>
       </c>
       <c r="C25">
-        <v>0.49431623931623903</v>
+        <v>0.22255341880341881</v>
       </c>
       <c r="E25" s="1">
-        <v>0.60029914529914497</v>
+        <v>0.40152777777777698</v>
       </c>
       <c r="F25">
-        <v>0.54952991452991395</v>
+        <v>0.36189102564102499</v>
       </c>
       <c r="G25">
-        <v>0.53154914529914499</v>
+        <v>0.26430555555555502</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>0.43631410256410202</v>
+      <c r="A26">
+        <v>0.15853632478632479</v>
       </c>
       <c r="B26">
-        <v>0.47336538461538402</v>
+        <v>0.19762820512820511</v>
       </c>
       <c r="C26">
-        <v>0.50303418803418798</v>
+        <v>0.23418803418803419</v>
       </c>
       <c r="E26" s="1">
-        <v>0.632083333333333</v>
+        <v>0.45341880341880297</v>
       </c>
       <c r="F26">
-        <v>0.55268162393162301</v>
+        <v>0.36530982905982901</v>
       </c>
       <c r="G26">
-        <v>0.53607905982905901</v>
+        <v>0.274967948717948</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>0.44419871794871701</v>
+      <c r="A27">
+        <v>0.16642094017094017</v>
       </c>
       <c r="B27">
-        <v>0.48190170940170901</v>
+        <v>0.20624999999999999</v>
       </c>
       <c r="C27">
-        <v>0.510779914529914</v>
+        <v>0.2450534188034188</v>
       </c>
       <c r="E27" s="1">
-        <v>0.66730769230769205</v>
+        <v>0.51097222222222205</v>
       </c>
       <c r="F27">
-        <v>0.55865384615384595</v>
+        <v>0.37173076923076898</v>
       </c>
       <c r="G27">
-        <v>0.54075854700854697</v>
+        <v>0.28454059829059802</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>0.45143162393162301</v>
+      <c r="A28">
+        <v>0.17365384615384616</v>
       </c>
       <c r="B28">
-        <v>0.48929487179487102</v>
+        <v>0.21377136752136752</v>
       </c>
       <c r="C28">
-        <v>0.51798076923076897</v>
+        <v>0.25557692307692309</v>
       </c>
       <c r="E28" s="1">
-        <v>0.68983974358974298</v>
+        <v>0.557938034188034</v>
       </c>
       <c r="F28">
-        <v>0.56216880341880304</v>
+        <v>0.375651709401709</v>
       </c>
       <c r="G28">
-        <v>0.54401709401709397</v>
+        <v>0.29188034188034101</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>0.45850427350427297</v>
+      <c r="A29">
+        <v>0.18072649572649574</v>
       </c>
       <c r="B29">
-        <v>0.49564102564102502</v>
+        <v>0.22025641025641027</v>
       </c>
       <c r="C29">
-        <v>0.524903846153846</v>
+        <v>0.26610042735042733</v>
       </c>
       <c r="E29" s="1">
-        <v>0.70570512820512799</v>
+        <v>0.58715811965811904</v>
       </c>
       <c r="F29">
-        <v>0.56425213675213604</v>
+        <v>0.37829059829059802</v>
       </c>
       <c r="G29">
-        <v>0.54892094017093995</v>
+        <v>0.30215811965811901</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>0.46397435897435801</v>
+      <c r="A30">
+        <v>0.1861965811965812</v>
       </c>
       <c r="B30">
-        <v>0.50111111111111095</v>
+        <v>0.22591880341880341</v>
       </c>
       <c r="C30">
-        <v>0.53091880341880304</v>
+        <v>0.2754380341880342</v>
       </c>
       <c r="E30" s="1">
-        <v>0.71246794871794805</v>
+        <v>0.60469017094017097</v>
       </c>
       <c r="F30">
-        <v>0.56821581196581195</v>
+        <v>0.38291666666666602</v>
       </c>
       <c r="G30">
-        <v>0.55198717948717901</v>
+        <v>0.30900641025641001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0.468728632478632</v>
+      <c r="A31">
+        <v>0.19095085470085471</v>
       </c>
       <c r="B31">
-        <v>0.506431623931623</v>
+        <v>0.23135683760683762</v>
       </c>
       <c r="C31">
-        <v>0.53741452991452898</v>
+        <v>0.28497863247863248</v>
       </c>
       <c r="E31" s="1">
-        <v>0.713664529914529</v>
+        <v>0.61585470085469995</v>
       </c>
       <c r="F31">
-        <v>0.57392094017093997</v>
+        <v>0.38930555555555502</v>
       </c>
       <c r="G31">
-        <v>0.55705128205128196</v>
+        <v>0.31920940170940099</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>0.47286324786324702</v>
+      <c r="A32">
+        <v>0.19508547008547009</v>
       </c>
       <c r="B32">
-        <v>0.51133547008546998</v>
+        <v>0.2364102564102564</v>
       </c>
       <c r="C32">
-        <v>0.542767094017094</v>
+        <v>0.29351495726495724</v>
       </c>
       <c r="E32" s="1">
-        <v>0.714316239316239</v>
+        <v>0.61977564102564098</v>
       </c>
       <c r="F32">
-        <v>0.576623931623931</v>
+        <v>0.392799145299145</v>
       </c>
       <c r="G32">
-        <v>0.56055555555555503</v>
+        <v>0.32618589743589699</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>0.47681623931623901</v>
+      <c r="A33">
+        <v>0.19903846153846153</v>
       </c>
       <c r="B33">
-        <v>0.51596153846153803</v>
+        <v>0.2413034188034188</v>
       </c>
       <c r="C33">
-        <v>0.54775641025640998</v>
+        <v>0.30202991452991451</v>
       </c>
       <c r="E33" s="1">
-        <v>0.71459401709401704</v>
+        <v>0.62330128205128199</v>
       </c>
       <c r="F33">
-        <v>0.58128205128205102</v>
+        <v>0.39837606837606798</v>
       </c>
       <c r="G33">
-        <v>0.56576923076923002</v>
+        <v>0.33557692307692299</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>0.480309829059829</v>
+      <c r="A34">
+        <v>0.20253205128205129</v>
       </c>
       <c r="B34">
-        <v>0.52027777777777695</v>
+        <v>0.24598290598290598</v>
       </c>
       <c r="C34">
-        <v>0.55267094017093998</v>
+        <v>0.31034188034188032</v>
       </c>
       <c r="E34" s="1">
-        <v>0.71538461538461495</v>
+        <v>0.62543803418803401</v>
       </c>
       <c r="F34">
-        <v>0.58436965811965802</v>
+        <v>0.40211538461538399</v>
       </c>
       <c r="G34">
-        <v>0.56898504273504202</v>
+        <v>0.34184829059829003</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>0.48364316239316202</v>
+      <c r="A35">
+        <v>0.20586538461538462</v>
       </c>
       <c r="B35">
-        <v>0.52382478632478602</v>
+        <v>0.25017094017094016</v>
       </c>
       <c r="C35">
-        <v>0.55707264957264901</v>
+        <v>0.31855769230769232</v>
       </c>
       <c r="E35" s="1">
-        <v>0.716923076923076</v>
+        <v>0.62925213675213598</v>
       </c>
       <c r="F35">
-        <v>0.592403846153846</v>
+        <v>0.41076923076923</v>
       </c>
       <c r="G35">
-        <v>0.57385683760683703</v>
+        <v>0.35170940170940101</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>0.48681623931623902</v>
+      <c r="A36">
+        <v>0.20903846153846153</v>
       </c>
       <c r="B36">
-        <v>0.527382478632478</v>
+        <v>0.25463675213675213</v>
       </c>
       <c r="C36">
-        <v>0.56152777777777696</v>
+        <v>0.32694444444444443</v>
       </c>
       <c r="E36" s="1">
-        <v>0.71694444444444405</v>
+        <v>0.63032051282051205</v>
       </c>
       <c r="F36">
-        <v>0.59517094017093997</v>
+        <v>0.41443376068375998</v>
       </c>
       <c r="G36">
-        <v>0.57754273504273501</v>
+        <v>0.35897435897435898</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>0.49018162393162301</v>
+      <c r="A37">
+        <v>0.21240384615384617</v>
       </c>
       <c r="B37">
-        <v>0.53097222222222196</v>
+        <v>0.2598076923076923</v>
       </c>
       <c r="C37">
-        <v>0.56559829059829003</v>
+        <v>0.33431623931623933</v>
       </c>
       <c r="E37" s="1">
-        <v>0.71702991452991405</v>
+        <v>0.63074786324786303</v>
       </c>
       <c r="F37">
-        <v>0.60114316239316201</v>
+        <v>0.421655982905982</v>
       </c>
       <c r="G37">
-        <v>0.58287393162393097</v>
+        <v>0.36927350427350403</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>0.49307692307692302</v>
+      <c r="A38">
+        <v>0.21529914529914529</v>
       </c>
       <c r="B38">
-        <v>0.53419871794871798</v>
+        <v>0.26485042735042735</v>
       </c>
       <c r="C38">
-        <v>0.56995726495726495</v>
+        <v>0.34223290598290601</v>
       </c>
       <c r="E38" s="1">
-        <v>0.71702991452991405</v>
+        <v>0.63089743589743497</v>
       </c>
       <c r="F38">
-        <v>0.61099358974358897</v>
+        <v>0.43288461538461498</v>
       </c>
       <c r="G38">
-        <v>0.58840811965811901</v>
+        <v>0.37894230769230702</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>0.49540598290598198</v>
+      <c r="A39">
+        <v>0.21766025641025641</v>
       </c>
       <c r="B39">
-        <v>0.53720085470085399</v>
+        <v>0.27006410256410257</v>
       </c>
       <c r="C39">
-        <v>0.57362179487179399</v>
+        <v>0.34909188034188032</v>
       </c>
       <c r="E39" s="1">
-        <v>0.71704059829059796</v>
+        <v>0.63098290598290596</v>
       </c>
       <c r="F39">
-        <v>0.61708333333333298</v>
+        <v>0.44045940170940101</v>
       </c>
       <c r="G39">
-        <v>0.59206196581196502</v>
+        <v>0.38570512820512798</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>0.49767094017093999</v>
+      <c r="A40">
+        <v>0.21996794871794872</v>
       </c>
       <c r="B40">
-        <v>0.540160256410256</v>
+        <v>0.27552350427350425</v>
       </c>
       <c r="C40">
-        <v>0.57743589743589696</v>
+        <v>0.3561645299145299</v>
       </c>
       <c r="E40" s="1">
-        <v>0.723141025641025</v>
+        <v>0.637211538461538</v>
       </c>
       <c r="F40">
-        <v>0.62842948717948699</v>
+        <v>0.453450854700854</v>
       </c>
       <c r="G40">
-        <v>0.59810897435897403</v>
+        <v>0.39697649572649502</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>0.5</v>
+      <c r="A41">
+        <v>0.22230769230769232</v>
       </c>
       <c r="B41">
-        <v>0.54322649572649495</v>
+        <v>0.28072649572649572</v>
       </c>
       <c r="C41">
-        <v>0.58157051282051198</v>
+        <v>0.3635576923076923</v>
       </c>
       <c r="E41" s="1">
-        <v>0.723141025641025</v>
+        <v>0.63722222222222202</v>
       </c>
       <c r="F41">
-        <v>0.63698717948717898</v>
+        <v>0.464273504273504</v>
       </c>
       <c r="G41">
-        <v>0.60238247863247796</v>
+        <v>0.40521367521367502</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>0.50211538461538396</v>
+      <c r="A42">
+        <v>0.22442307692307692</v>
       </c>
       <c r="B42">
-        <v>0.54590811965811903</v>
+        <v>0.28598290598290599</v>
       </c>
       <c r="C42">
-        <v>0.58559829059829005</v>
+        <v>0.37135683760683763</v>
       </c>
       <c r="E42" s="1">
-        <v>0.75438034188034098</v>
+        <v>0.66871794871794799</v>
       </c>
       <c r="F42">
-        <v>0.647297008547008</v>
+        <v>0.47722222222222199</v>
       </c>
       <c r="G42">
-        <v>0.60931623931623902</v>
+        <v>0.419551282051282</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>0.50410256410256404</v>
+      <c r="A43">
+        <v>0.22641025641025642</v>
       </c>
       <c r="B43">
-        <v>0.54886752136752104</v>
+        <v>0.29172008547008549</v>
       </c>
       <c r="C43">
-        <v>0.58928418803418803</v>
+        <v>0.37965811965811963</v>
       </c>
       <c r="E43" s="1">
-        <v>0.75438034188034098</v>
+        <v>0.66871794871794799</v>
       </c>
       <c r="F43">
-        <v>0.66179487179487095</v>
+        <v>0.49490384615384603</v>
       </c>
       <c r="G43">
-        <v>0.61469017094017098</v>
+        <v>0.43084401709401698</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>0.50599358974358899</v>
+      <c r="A44">
+        <v>0.22831196581196581</v>
       </c>
       <c r="B44">
-        <v>0.55198717948717901</v>
+        <v>0.29730769230769233</v>
       </c>
       <c r="C44">
-        <v>0.59333333333333305</v>
+        <v>0.38836538461538461</v>
       </c>
       <c r="E44" s="1">
-        <v>0.75492521367521304</v>
+        <v>0.66939102564102504</v>
       </c>
       <c r="F44">
-        <v>0.67803418803418802</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="G44">
-        <v>0.62379273504273502</v>
+        <v>0.44934829059829001</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>0.50795940170940101</v>
+      <c r="A45">
+        <v>0.2302991452991453</v>
       </c>
       <c r="B45">
-        <v>0.55474358974358895</v>
+        <v>0.30252136752136755</v>
       </c>
       <c r="C45">
-        <v>0.59768162393162305</v>
+        <v>0.39738247863247861</v>
       </c>
       <c r="E45" s="1">
-        <v>0.75492521367521304</v>
+        <v>0.66939102564102504</v>
       </c>
       <c r="F45">
-        <v>0.69459401709401702</v>
+        <v>0.53542735042735001</v>
       </c>
       <c r="G45">
-        <v>0.63020299145299097</v>
+        <v>0.46308760683760603</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>0.50967948717948697</v>
+      <c r="A46">
+        <v>0.23202991452991453</v>
       </c>
       <c r="B46">
-        <v>0.55759615384615302</v>
+        <v>0.30801282051282053</v>
       </c>
       <c r="C46">
-        <v>0.601527777777777</v>
+        <v>0.40542735042735045</v>
       </c>
       <c r="E46" s="1">
-        <v>0.75493589743589695</v>
+        <v>0.66942307692307601</v>
       </c>
       <c r="F46">
-        <v>0.71219017094017001</v>
+        <v>0.55714743589743498</v>
       </c>
       <c r="G46">
-        <v>0.64193376068375996</v>
+        <v>0.48431623931623902</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>0.51104700854700802</v>
+      <c r="A47">
+        <v>0.23342948717948717</v>
       </c>
       <c r="B47">
-        <v>0.56016025641025602</v>
+        <v>0.31303418803418803</v>
       </c>
       <c r="C47">
-        <v>0.60555555555555496</v>
+        <v>0.41291666666666665</v>
       </c>
       <c r="E47" s="1">
-        <v>0.75494658119658098</v>
+        <v>0.66945512820512798</v>
       </c>
       <c r="F47">
-        <v>0.72907051282051205</v>
+        <v>0.57808760683760596</v>
       </c>
       <c r="G47">
-        <v>0.65495726495726403</v>
+        <v>0.50395299145299099</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>0.51260683760683701</v>
+      <c r="A48">
+        <v>0.23505341880341879</v>
       </c>
       <c r="B48">
-        <v>0.56283119658119596</v>
+        <v>0.31846153846153846</v>
       </c>
       <c r="C48">
-        <v>0.60967948717948695</v>
+        <v>0.42089743589743589</v>
       </c>
       <c r="E48" s="1">
-        <v>0.75494658119658098</v>
+        <v>0.66945512820512798</v>
       </c>
       <c r="F48">
-        <v>0.74444444444444402</v>
+        <v>0.59841880341880305</v>
       </c>
       <c r="G48">
-        <v>0.66409188034188005</v>
+        <v>0.51753205128205104</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>0.51436965811965796</v>
+      <c r="A49">
+        <v>0.23686965811965813</v>
       </c>
       <c r="B49">
-        <v>0.565801282051282</v>
+        <v>0.32424145299145302</v>
       </c>
       <c r="C49">
-        <v>0.61358974358974305</v>
+        <v>0.42831196581196579</v>
       </c>
       <c r="E49" s="1">
-        <v>0.75494658119658098</v>
+        <v>0.66945512820512798</v>
       </c>
       <c r="F49">
-        <v>0.75800213675213601</v>
+        <v>0.61717948717948701</v>
       </c>
       <c r="G49">
-        <v>0.67930555555555505</v>
+        <v>0.54034188034188002</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>0.51591880341880303</v>
+      <c r="A50">
+        <v>0.23846153846153847</v>
       </c>
       <c r="B50">
-        <v>0.56857905982905899</v>
+        <v>0.32959401709401709</v>
       </c>
       <c r="C50">
-        <v>0.61751068376068297</v>
+        <v>0.43567307692307694</v>
       </c>
       <c r="E50" s="1">
-        <v>0.77516025641025599</v>
+        <v>0.68980769230769201</v>
       </c>
       <c r="F50">
-        <v>0.77147435897435901</v>
+        <v>0.63683760683760604</v>
       </c>
       <c r="G50">
-        <v>0.68956196581196505</v>
+        <v>0.55645299145299099</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>0.51754273504273496</v>
+      <c r="A51">
+        <v>0.2401923076923077</v>
       </c>
       <c r="B51">
-        <v>0.57100427350427296</v>
+        <v>0.33428418803418802</v>
       </c>
       <c r="C51">
-        <v>0.62189102564102505</v>
+        <v>0.44355769230769232</v>
       </c>
       <c r="E51" s="1">
-        <v>0.77516025641025599</v>
+        <v>0.68980769230769201</v>
       </c>
       <c r="F51">
-        <v>0.78337606837606799</v>
+        <v>0.65576923076922999</v>
       </c>
       <c r="G51">
-        <v>0.70386752136752095</v>
+        <v>0.57924145299145302</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>0.51897435897435895</v>
+      <c r="A52">
+        <v>0.24175213675213675</v>
       </c>
       <c r="B52">
-        <v>0.57378205128205095</v>
+        <v>0.33949786324786324</v>
       </c>
       <c r="C52">
-        <v>0.62637820512820497</v>
+        <v>0.45103632478632477</v>
       </c>
       <c r="E52" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69239316239316195</v>
       </c>
       <c r="F52">
-        <v>0.80116452991452902</v>
+        <v>0.68208333333333304</v>
       </c>
       <c r="G52">
-        <v>0.71220085470085404</v>
+        <v>0.59408119658119596</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>0.52082264957264901</v>
+      <c r="A53">
+        <v>0.24388888888888888</v>
       </c>
       <c r="B53">
-        <v>0.57628205128205101</v>
+        <v>0.34418803418803418</v>
       </c>
       <c r="C53">
-        <v>0.63133547008546997</v>
+        <v>0.45934829059829058</v>
       </c>
       <c r="E53" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69241452991452901</v>
       </c>
       <c r="F53">
-        <v>0.81568376068376003</v>
+        <v>0.70638888888888796</v>
       </c>
       <c r="G53">
-        <v>0.72499999999999998</v>
+        <v>0.61805555555555503</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>0.52237179487179397</v>
+      <c r="A54">
+        <v>0.24613247863247864</v>
       </c>
       <c r="B54">
-        <v>0.57864316239316205</v>
+        <v>0.3486217948717949</v>
       </c>
       <c r="C54">
-        <v>0.63606837606837596</v>
+        <v>0.46667735042735042</v>
       </c>
       <c r="E54" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69241452991452901</v>
       </c>
       <c r="F54">
-        <v>0.83220085470085403</v>
+        <v>0.73410256410256403</v>
       </c>
       <c r="G54">
-        <v>0.73362179487179402</v>
+        <v>0.63509615384615303</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>0.52380341880341796</v>
+      <c r="A55">
+        <v>0.24847222222222223</v>
       </c>
       <c r="B55">
-        <v>0.58107905982905905</v>
+        <v>0.35340811965811963</v>
       </c>
       <c r="C55">
-        <v>0.64138888888888801</v>
+        <v>0.47481837606837607</v>
       </c>
       <c r="E55" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69241452991452901</v>
       </c>
       <c r="F55">
-        <v>0.84860042735042696</v>
+        <v>0.76179487179487104</v>
       </c>
       <c r="G55">
-        <v>0.746826923076923</v>
+        <v>0.65931623931623895</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>0.52529914529914501</v>
+      <c r="A56">
+        <v>0.25099358974358976</v>
       </c>
       <c r="B56">
-        <v>0.58361111111111097</v>
+        <v>0.35809829059829063</v>
       </c>
       <c r="C56">
-        <v>0.64702991452991399</v>
+        <v>0.48387820512820512</v>
       </c>
       <c r="E56" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69241452991452901</v>
       </c>
       <c r="F56">
-        <v>0.86232905982905905</v>
+        <v>0.78642094017094</v>
       </c>
       <c r="G56">
-        <v>0.75658119658119605</v>
+        <v>0.67435897435897396</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>0.52684829059828997</v>
+      <c r="A57">
+        <v>0.25351495726495726</v>
       </c>
       <c r="B57">
-        <v>0.58594017094017004</v>
+        <v>0.36277777777777775</v>
       </c>
       <c r="C57">
-        <v>0.65211538461538399</v>
+        <v>0.49189102564102566</v>
       </c>
       <c r="E57" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69241452991452901</v>
       </c>
       <c r="F57">
-        <v>0.87795940170940101</v>
+        <v>0.81223290598290598</v>
       </c>
       <c r="G57">
-        <v>0.77060897435897402</v>
+        <v>0.69536324786324699</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>0.528643162393162</v>
+      <c r="A58">
+        <v>0.25641025641025639</v>
       </c>
       <c r="B58">
-        <v>0.58824786324786305</v>
+        <v>0.36733974358974358</v>
       </c>
       <c r="C58">
-        <v>0.65719017094017096</v>
+        <v>0.4999465811965812</v>
       </c>
       <c r="E58" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69241452991452901</v>
       </c>
       <c r="F58">
-        <v>0.89325854700854701</v>
+        <v>0.83730769230769198</v>
       </c>
       <c r="G58">
-        <v>0.78387820512820505</v>
+        <v>0.71451923076922996</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>0.529989316239316</v>
+      <c r="A59">
+        <v>0.25917735042735041</v>
       </c>
       <c r="B59">
-        <v>0.59065170940170897</v>
+        <v>0.37183760683760686</v>
       </c>
       <c r="C59">
-        <v>0.66246794871794801</v>
+        <v>0.5082478632478632</v>
       </c>
       <c r="E59" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69241452991452901</v>
       </c>
       <c r="F59">
-        <v>0.90831196581196505</v>
+        <v>0.862136752136752</v>
       </c>
       <c r="G59">
-        <v>0.79368589743589701</v>
+        <v>0.72772435897435805</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>0.53148504273504205</v>
+      <c r="A60">
+        <v>0.26224358974358974</v>
       </c>
       <c r="B60">
-        <v>0.59310897435897403</v>
+        <v>0.37616452991452992</v>
       </c>
       <c r="C60">
-        <v>0.66733974358974302</v>
+        <v>0.51627136752136749</v>
       </c>
       <c r="E60" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69241452991452901</v>
       </c>
       <c r="F60">
-        <v>0.92096153846153805</v>
+        <v>0.88353632478632405</v>
       </c>
       <c r="G60">
-        <v>0.81211538461538402</v>
+        <v>0.75009615384615302</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>0.53304487179487103</v>
+      <c r="A61">
+        <v>0.26580128205128206</v>
       </c>
       <c r="B61">
-        <v>0.59572649572649505</v>
+        <v>0.3806837606837607</v>
       </c>
       <c r="C61">
-        <v>0.67277777777777703</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E61" s="1">
-        <v>0.77759615384615299</v>
+        <v>0.69241452991452901</v>
       </c>
       <c r="F61">
-        <v>0.93209401709401696</v>
+        <v>0.90221153846153801</v>
       </c>
       <c r="G61">
-        <v>0.829188034188034</v>
+        <v>0.76949786324786296</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>0.53452991452991405</v>
+      <c r="A62">
+        <v>0.26939102564102563</v>
       </c>
       <c r="B62">
-        <v>0.59854700854700804</v>
+        <v>0.38587606837606836</v>
       </c>
       <c r="C62">
-        <v>0.67860042735042703</v>
+        <v>0.53401709401709396</v>
       </c>
       <c r="E62" s="1">
-        <v>0.83783119658119598</v>
+        <v>0.75305555555555503</v>
       </c>
       <c r="F62">
-        <v>0.94155982905982905</v>
+        <v>0.91786324786324702</v>
       </c>
       <c r="G62">
-        <v>0.85321581196581198</v>
+        <v>0.79638888888888804</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>0.53610042735042696</v>
+      <c r="A63">
+        <v>0.2730448717948718</v>
       </c>
       <c r="B63">
-        <v>0.601442307692307</v>
+        <v>0.39104700854700852</v>
       </c>
       <c r="C63">
-        <v>0.68467948717948701</v>
+        <v>0.54316239316239312</v>
       </c>
       <c r="E63" s="1">
-        <v>0.83783119658119598</v>
+        <v>0.75305555555555503</v>
       </c>
       <c r="F63">
-        <v>0.95070512820512798</v>
+        <v>0.93277777777777704</v>
       </c>
       <c r="G63">
-        <v>0.86643162393162398</v>
+        <v>0.81089743589743501</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>0.53777777777777702</v>
+      <c r="A64">
+        <v>0.27666666666666667</v>
       </c>
       <c r="B64">
-        <v>0.60415598290598205</v>
+        <v>0.39611111111111114</v>
       </c>
       <c r="C64">
-        <v>0.69133547008547003</v>
+        <v>0.5526388888888889</v>
       </c>
       <c r="E64" s="1">
-        <v>0.83783119658119598</v>
+        <v>0.75305555555555503</v>
       </c>
       <c r="F64">
-        <v>0.95809829059828999</v>
+        <v>0.94442307692307603</v>
       </c>
       <c r="G64">
-        <v>0.88152777777777702</v>
+        <v>0.82794871794871705</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>0.53927350427350396</v>
+      <c r="A65">
+        <v>0.27992521367521367</v>
       </c>
       <c r="B65">
-        <v>0.60682692307692299</v>
+        <v>0.40160256410256412</v>
       </c>
       <c r="C65">
-        <v>0.69729700854700805</v>
+        <v>0.56152777777777774</v>
       </c>
       <c r="E65" s="1">
-        <v>0.83783119658119598</v>
+        <v>0.75305555555555503</v>
       </c>
       <c r="F65">
-        <v>0.96563034188034103</v>
+        <v>0.95528846153846103</v>
       </c>
       <c r="G65">
-        <v>0.88774572649572603</v>
+        <v>0.83638888888888796</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>0.54083333333333306</v>
+      <c r="A66">
+        <v>0.28304487179487181</v>
       </c>
       <c r="B66">
-        <v>0.609658119658119</v>
+        <v>0.40690170940170939</v>
       </c>
       <c r="C66">
-        <v>0.70350427350427303</v>
+        <v>0.57055555555555559</v>
       </c>
       <c r="E66" s="1">
-        <v>0.83783119658119598</v>
+        <v>0.75305555555555503</v>
       </c>
       <c r="F66">
-        <v>0.97073717948717897</v>
+        <v>0.96288461538461501</v>
       </c>
       <c r="G66">
-        <v>0.89434829059829002</v>
+        <v>0.84759615384615306</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>0.54236111111111096</v>
+      <c r="A67">
+        <v>0.2861431623931624</v>
       </c>
       <c r="B67">
-        <v>0.61260683760683698</v>
+        <v>0.4129059829059829</v>
       </c>
       <c r="C67">
-        <v>0.710363247863247</v>
+        <v>0.58012820512820518</v>
       </c>
       <c r="E67" s="1">
-        <v>0.83783119658119598</v>
+        <v>0.75305555555555503</v>
       </c>
       <c r="F67">
-        <v>0.97577991452991397</v>
+        <v>0.96961538461538399</v>
       </c>
       <c r="G67">
-        <v>0.90066239316239305</v>
+        <v>0.85731837606837602</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>0.54384615384615298</v>
+      <c r="A68">
+        <v>0.28967948717948716</v>
       </c>
       <c r="B68">
-        <v>0.61547008547008497</v>
+        <v>0.41873931623931626</v>
       </c>
       <c r="C68">
-        <v>0.71595085470085396</v>
+        <v>0.58815170940170935</v>
       </c>
       <c r="E68" s="1">
-        <v>0.83783119658119598</v>
+        <v>0.75305555555555503</v>
       </c>
       <c r="F68">
-        <v>0.97967948717948705</v>
+        <v>0.97476495726495704</v>
       </c>
       <c r="G68">
-        <v>0.90382478632478602</v>
+        <v>0.86395299145299098</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>0.54552350427350405</v>
+      <c r="A69">
+        <v>0.29338675213675214</v>
       </c>
       <c r="B69">
-        <v>0.61833333333333296</v>
+        <v>0.42480769230769233</v>
       </c>
       <c r="C69">
-        <v>0.721399572649572</v>
+        <v>0.59584401709401713</v>
       </c>
       <c r="E69" s="1">
-        <v>0.83783119658119598</v>
+        <v>0.75305555555555503</v>
       </c>
       <c r="F69">
-        <v>0.98337606837606795</v>
+        <v>0.97931623931623901</v>
       </c>
       <c r="G69">
-        <v>0.90760683760683702</v>
+        <v>0.87706196581196505</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>0.54699786324786304</v>
+      <c r="A70">
+        <v>0.29678418803418805</v>
       </c>
       <c r="B70">
-        <v>0.62106837606837595</v>
+        <v>0.4308440170940171</v>
       </c>
       <c r="C70">
-        <v>0.72660256410256396</v>
+        <v>0.60311965811965806</v>
       </c>
       <c r="E70" s="1">
-        <v>0.83784188034188001</v>
+        <v>0.75306623931623895</v>
       </c>
       <c r="F70">
-        <v>0.98645299145299103</v>
+        <v>0.98317307692307598</v>
       </c>
       <c r="G70">
-        <v>0.910117521367521</v>
+        <v>0.88694444444444398</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>0.54863247863247799</v>
+      <c r="A71">
+        <v>0.3000854700854701</v>
       </c>
       <c r="B71">
-        <v>0.62407051282051196</v>
+        <v>0.43743589743589745</v>
       </c>
       <c r="C71">
-        <v>0.73154914529914505</v>
+        <v>0.6101709401709402</v>
       </c>
       <c r="E71" s="1">
-        <v>0.83784188034188001</v>
+        <v>0.75306623931623895</v>
       </c>
       <c r="F71">
-        <v>0.98899572649572598</v>
+        <v>0.98641025641025604</v>
       </c>
       <c r="G71">
-        <v>0.91413461538461505</v>
+        <v>0.901079059829059</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>0.55038461538461503</v>
+      <c r="A72">
+        <v>0.30362179487179486</v>
       </c>
       <c r="B72">
-        <v>0.62715811965811896</v>
+        <v>0.44379273504273503</v>
       </c>
       <c r="C72">
-        <v>0.73629273504273496</v>
+        <v>0.61726495726495723</v>
       </c>
       <c r="E72" s="1">
-        <v>0.83887820512820499</v>
+        <v>0.75412393162393099</v>
       </c>
       <c r="F72">
-        <v>0.99087606837606801</v>
+        <v>0.98879273504273502</v>
       </c>
       <c r="G72">
-        <v>0.91681623931623901</v>
+        <v>0.90928418803418798</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>0.55177350427350402</v>
+      <c r="A73">
+        <v>0.30680555555555555</v>
       </c>
       <c r="B73">
-        <v>0.62993589743589695</v>
+        <v>0.45001068376068376</v>
       </c>
       <c r="C73">
-        <v>0.74056623931623899</v>
+        <v>0.62351495726495731</v>
       </c>
       <c r="E73" s="1">
-        <v>0.83887820512820499</v>
+        <v>0.75412393162393099</v>
       </c>
       <c r="F73">
-        <v>0.99263888888888796</v>
+        <v>0.99099358974358898</v>
       </c>
       <c r="G73">
-        <v>0.92256410256410204</v>
+        <v>0.92080128205128198</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>0.55340811965811898</v>
+      <c r="A74">
+        <v>0.31042735042735042</v>
       </c>
       <c r="B74">
-        <v>0.63280982905982897</v>
+        <v>0.45610042735042733</v>
       </c>
       <c r="C74">
-        <v>0.74496794871794803</v>
+        <v>0.62978632478632479</v>
       </c>
       <c r="E74" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F74">
-        <v>0.99413461538461501</v>
+        <v>0.99283119658119601</v>
       </c>
       <c r="G74">
-        <v>0.92747863247863205</v>
+        <v>0.92710470085469998</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>0.55509615384615296</v>
+      <c r="A75">
+        <v>0.31398504273504274</v>
       </c>
       <c r="B75">
-        <v>0.63594017094017097</v>
+        <v>0.46198717948717949</v>
       </c>
       <c r="C75">
-        <v>0.74893162393162305</v>
+        <v>0.63558760683760684</v>
       </c>
       <c r="E75" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F75">
-        <v>0.99527777777777704</v>
+        <v>0.99426282051282</v>
       </c>
       <c r="G75">
-        <v>0.93728632478632401</v>
+        <v>0.93723290598290598</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>0.55688034188034097</v>
+      <c r="A76">
+        <v>0.31754273504273506</v>
       </c>
       <c r="B76">
-        <v>0.63914529914529905</v>
+        <v>0.46759615384615383</v>
       </c>
       <c r="C76">
-        <v>0.75294871794871798</v>
+        <v>0.6413888888888889</v>
       </c>
       <c r="E76" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F76">
-        <v>0.99633547008546997</v>
+        <v>0.99553418803418803</v>
       </c>
       <c r="G76">
         <v>0.94772435897435903</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>0.55861111111111095</v>
+      <c r="A77">
+        <v>0.32076923076923075</v>
       </c>
       <c r="B77">
-        <v>0.64263888888888798</v>
+        <v>0.47335470085470083</v>
       </c>
       <c r="C77">
-        <v>0.75716880341880299</v>
+        <v>0.64732905982905986</v>
       </c>
       <c r="E77" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F77">
-        <v>0.99719017094017004</v>
+        <v>0.99657051282051201</v>
       </c>
       <c r="G77">
         <v>0.96872863247863195</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>0.56040598290598198</v>
+      <c r="A78">
+        <v>0.32418803418803421</v>
       </c>
       <c r="B78">
-        <v>0.64623931623931596</v>
+        <v>0.47925213675213674</v>
       </c>
       <c r="C78">
-        <v>0.76181623931623899</v>
+        <v>0.65346153846153843</v>
       </c>
       <c r="E78" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F78">
-        <v>0.99776709401709396</v>
+        <v>0.99729700854700798</v>
       </c>
       <c r="G78">
         <v>0.99151709401709398</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>0.56201923076922999</v>
+      <c r="A79">
+        <v>0.32764957264957267</v>
       </c>
       <c r="B79">
-        <v>0.64945512820512796</v>
+        <v>0.48460470085470086</v>
       </c>
       <c r="C79">
-        <v>0.76657051282051203</v>
+        <v>0.6595405982905983</v>
       </c>
       <c r="E79" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F79">
-        <v>0.99818376068376002</v>
+        <v>0.99779914529914504</v>
       </c>
       <c r="G79">
         <v>0.99793803418803395</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>0.56374999999999997</v>
+      <c r="A80">
+        <v>0.33098290598290597</v>
       </c>
       <c r="B80">
-        <v>0.65276709401709399</v>
+        <v>0.49005341880341879</v>
       </c>
       <c r="C80">
-        <v>0.771036324786324</v>
+        <v>0.66512820512820514</v>
       </c>
       <c r="E80" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F80">
-        <v>0.99849358974358904</v>
+        <v>0.99823717948717905</v>
       </c>
       <c r="G80">
         <v>0.99988247863247803</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>0.56549145299145298</v>
+      <c r="A81">
+        <v>0.33413461538461536</v>
       </c>
       <c r="B81">
-        <v>0.65623931623931597</v>
+        <v>0.49542735042735042</v>
       </c>
       <c r="C81">
-        <v>0.77572649572649499</v>
+        <v>0.67119658119658121</v>
       </c>
       <c r="E81" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F81">
-        <v>0.99877136752136697</v>
+        <v>0.99857905982905903</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>0.56725427350427304</v>
+      <c r="A82">
+        <v>0.33706196581196579</v>
       </c>
       <c r="B82">
-        <v>0.66004273504273503</v>
+        <v>0.50126068376068378</v>
       </c>
       <c r="C82">
-        <v>0.78051282051282</v>
+        <v>0.67701923076923076</v>
       </c>
       <c r="E82" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F82">
-        <v>0.99899572649572599</v>
+        <v>0.99887820512820502</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>0.568974358974359</v>
+      <c r="A83">
+        <v>0.34021367521367524</v>
       </c>
       <c r="B83">
-        <v>0.66422008547008504</v>
+        <v>0.50762820512820517</v>
       </c>
       <c r="C83">
-        <v>0.78521367521367502</v>
+        <v>0.68300213675213672</v>
       </c>
       <c r="E83" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F83">
-        <v>0.99920940170940098</v>
+        <v>0.99913461538461501</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>0.57056623931623895</v>
+      <c r="A84">
+        <v>0.34342948717948718</v>
       </c>
       <c r="B84">
-        <v>0.66860042735042702</v>
+        <v>0.51442307692307687</v>
       </c>
       <c r="C84">
-        <v>0.78978632478632405</v>
+        <v>0.68894230769230769</v>
       </c>
       <c r="E84" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F84">
-        <v>0.99938034188034097</v>
+        <v>0.99932692307692295</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>0.57194444444444403</v>
+      <c r="A85">
+        <v>0.34651709401709402</v>
       </c>
       <c r="B85">
-        <v>0.67372863247863202</v>
+        <v>0.52189102564102563</v>
       </c>
       <c r="C85">
-        <v>0.79418803418803396</v>
+        <v>0.69456196581196583</v>
       </c>
       <c r="E85" s="1">
-        <v>0.85176282051282004</v>
+        <v>0.76711538461538398</v>
       </c>
       <c r="F85">
-        <v>0.99954059829059805</v>
+        <v>0.99950854700854697</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>0.57361111111111096</v>
+      <c r="A86">
+        <v>0.34983974358974357</v>
       </c>
       <c r="B86">
-        <v>0.67940170940170896</v>
+        <v>0.53012820512820513</v>
       </c>
       <c r="C86">
-        <v>0.79883547008546996</v>
+        <v>0.70058760683760679</v>
       </c>
       <c r="E86" s="1">
-        <v>0.85185897435897395</v>
+        <v>0.76728632478632397</v>
       </c>
       <c r="F86">
-        <v>0.99964743589743499</v>
+        <v>0.99961538461538402</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>0.57544871794871799</v>
+      <c r="A87">
+        <v>0.35330128205128203</v>
       </c>
       <c r="B87">
-        <v>0.68583333333333296</v>
+        <v>0.53899572649572647</v>
       </c>
       <c r="C87">
-        <v>0.80446581196581202</v>
+        <v>0.70750000000000002</v>
       </c>
       <c r="E87" s="1">
-        <v>0.85185897435897395</v>
+        <v>0.76728632478632397</v>
       </c>
       <c r="F87">
-        <v>0.99975427350427304</v>
+        <v>0.99974358974358901</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>0.57725427350427305</v>
+      <c r="A88">
+        <v>0.3568482905982906</v>
       </c>
       <c r="B88">
-        <v>0.69299145299145304</v>
+        <v>0.54871794871794877</v>
       </c>
       <c r="C88">
-        <v>0.81066239316239297</v>
+        <v>0.71513888888888888</v>
       </c>
       <c r="E88" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F88">
-        <v>0.99985042735042695</v>
+        <v>0.99983974358974304</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>0.57912393162393105</v>
+      <c r="A89">
+        <v>0.36055555555555557</v>
       </c>
       <c r="B89">
-        <v>0.70006410256410201</v>
+        <v>0.55805555555555553</v>
       </c>
       <c r="C89">
-        <v>0.81760683760683694</v>
+        <v>0.72332264957264958</v>
       </c>
       <c r="E89" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F89">
         <v>0.99990384615384598</v>
@@ -2077,17 +2081,17 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>0.58103632478632405</v>
+      <c r="A90">
+        <v>0.36415598290598289</v>
       </c>
       <c r="B90">
-        <v>0.70745726495726402</v>
+        <v>0.56784188034188032</v>
       </c>
       <c r="C90">
-        <v>0.82522435897435897</v>
+        <v>0.73214743589743592</v>
       </c>
       <c r="E90" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F90">
         <v>0.99992521367521303</v>
@@ -2097,17 +2101,17 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>0.58266025641025598</v>
+      <c r="A91">
+        <v>0.36737179487179489</v>
       </c>
       <c r="B91">
-        <v>0.714316239316239</v>
+        <v>0.57724358974358969</v>
       </c>
       <c r="C91">
-        <v>0.83222222222222197</v>
+        <v>0.7402136752136752</v>
       </c>
       <c r="E91" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F91">
         <v>0.99992521367521303</v>
@@ -2117,17 +2121,17 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>0.58436965811965802</v>
+      <c r="A92">
+        <v>0.3707692307692308</v>
       </c>
       <c r="B92">
-        <v>0.72118589743589701</v>
+        <v>0.58647435897435896</v>
       </c>
       <c r="C92">
-        <v>0.83926282051281997</v>
+        <v>0.74800213675213678</v>
       </c>
       <c r="E92" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F92">
         <v>0.99996794871794803</v>
@@ -2137,17 +2141,17 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>0.58634615384615296</v>
+      <c r="A93">
+        <v>0.3742628205128205</v>
       </c>
       <c r="B93">
-        <v>0.72747863247863198</v>
+        <v>0.59567307692307692</v>
       </c>
       <c r="C93">
-        <v>0.84532051282051202</v>
+        <v>0.75488247863247859</v>
       </c>
       <c r="E93" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F93">
         <v>0.99996794871794803</v>
@@ -2157,17 +2161,17 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>0.58823717948717902</v>
+      <c r="A94">
+        <v>0.37741452991452989</v>
       </c>
       <c r="B94">
-        <v>0.73430555555555499</v>
+        <v>0.60538461538461541</v>
       </c>
       <c r="C94">
-        <v>0.85043803418803399</v>
+        <v>0.76053418803418804</v>
       </c>
       <c r="E94" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F94">
         <v>0.99996794871794803</v>
@@ -2177,17 +2181,17 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>0.59009615384615299</v>
+      <c r="A95">
+        <v>0.38063034188034189</v>
       </c>
       <c r="B95">
-        <v>0.74049145299145303</v>
+        <v>0.61462606837606837</v>
       </c>
       <c r="C95">
-        <v>0.85495726495726498</v>
+        <v>0.76555555555555554</v>
       </c>
       <c r="E95" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F95">
         <v>0.99997863247863195</v>
@@ -2197,17 +2201,17 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>0.59198717948717905</v>
+      <c r="A96">
+        <v>0.3840811965811966</v>
       </c>
       <c r="B96">
-        <v>0.74597222222222204</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="C96">
-        <v>0.85887820512820501</v>
+        <v>0.76991452991452991</v>
       </c>
       <c r="E96" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F96">
         <v>0.99997863247863195</v>
@@ -2217,17 +2221,17 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>0.59389957264957205</v>
+      <c r="A97">
+        <v>0.38754273504273506</v>
       </c>
       <c r="B97">
-        <v>0.75136752136752105</v>
+        <v>0.63129273504273509</v>
       </c>
       <c r="C97">
-        <v>0.862307692307692</v>
+        <v>0.77355769230769234</v>
       </c>
       <c r="E97" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F97">
         <v>0.99997863247863195</v>
@@ -2237,17 +2241,17 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>0.59601495726495701</v>
+      <c r="A98">
+        <v>0.39121794871794874</v>
       </c>
       <c r="B98">
-        <v>0.75636752136752095</v>
+        <v>0.63876068376068373</v>
       </c>
       <c r="C98">
-        <v>0.86541666666666595</v>
+        <v>0.77685897435897433</v>
       </c>
       <c r="E98" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F98">
         <v>0.99998931623931597</v>
@@ -2257,17 +2261,17 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>0.59790598290598296</v>
+      <c r="A99">
+        <v>0.39487179487179486</v>
       </c>
       <c r="B99">
-        <v>0.76019230769230695</v>
+        <v>0.64521367521367523</v>
       </c>
       <c r="C99">
-        <v>0.86785256410256395</v>
+        <v>0.77945512820512819</v>
       </c>
       <c r="E99" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2277,17 +2281,17 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>0.60004273504273498</v>
+      <c r="A100">
+        <v>0.3989102564102564</v>
       </c>
       <c r="B100">
-        <v>0.76434829059829001</v>
+        <v>0.65188034188034183</v>
       </c>
       <c r="C100">
-        <v>0.87001068376068302</v>
+        <v>0.78173076923076923</v>
       </c>
       <c r="E100" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2297,17 +2301,17 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>0.60206196581196503</v>
+      <c r="A101">
+        <v>0.40278846153846154</v>
       </c>
       <c r="B101">
-        <v>0.768386752136752</v>
+        <v>0.65848290598290593</v>
       </c>
       <c r="C101">
-        <v>0.87172008547008495</v>
+        <v>0.78356837606837604</v>
       </c>
       <c r="E101" s="1">
-        <v>0.85189102564102503</v>
+        <v>0.76731837606837605</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2317,17 +2321,17 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>0.60423076923076902</v>
+      <c r="A102">
+        <v>0.4070619658119658</v>
       </c>
       <c r="B102">
-        <v>0.772905982905982</v>
+        <v>0.66576923076923078</v>
       </c>
       <c r="C102">
-        <v>0.87301282051282003</v>
+        <v>0.78508547008547014</v>
       </c>
       <c r="E102" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76849358974358895</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2337,17 +2341,17 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>0.60650641025640994</v>
+      <c r="A103">
+        <v>0.41160256410256413</v>
       </c>
       <c r="B103">
-        <v>0.77717948717948704</v>
+        <v>0.67262820512820509</v>
       </c>
       <c r="C103">
-        <v>0.87389957264957197</v>
+        <v>0.7860683760683761</v>
       </c>
       <c r="E103" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76849358974358895</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -2357,17 +2361,17 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>0.60894230769230695</v>
+      <c r="A104">
+        <v>0.41630341880341881</v>
       </c>
       <c r="B104">
-        <v>0.78122863247863195</v>
+        <v>0.67876068376068377</v>
       </c>
       <c r="C104">
-        <v>0.87482905982905901</v>
+        <v>0.78715811965811966</v>
       </c>
       <c r="E104" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76849358974358895</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -2377,17 +2381,17 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>0.61123931623931604</v>
+      <c r="A105">
+        <v>0.42147435897435898</v>
       </c>
       <c r="B105">
-        <v>0.78602564102564099</v>
+        <v>0.68516025641025646</v>
       </c>
       <c r="C105">
-        <v>0.87540598290598204</v>
+        <v>0.7878739316239316</v>
       </c>
       <c r="E105" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76850427350427297</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -2397,17 +2401,17 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>0.61389957264957196</v>
+      <c r="A106">
+        <v>0.42711538461538462</v>
       </c>
       <c r="B106">
-        <v>0.79070512820512795</v>
+        <v>0.69134615384615383</v>
       </c>
       <c r="C106">
-        <v>0.87581196581196497</v>
+        <v>0.78835470085470083</v>
       </c>
       <c r="E106" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76850427350427297</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -2417,17 +2421,17 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>0.61664529914529898</v>
+      <c r="A107">
+        <v>0.43279914529914532</v>
       </c>
       <c r="B107">
-        <v>0.79542735042735002</v>
+        <v>0.6972649572649573</v>
       </c>
       <c r="C107">
-        <v>0.87635683760683702</v>
+        <v>0.78898504273504277</v>
       </c>
       <c r="E107" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76850427350427297</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -2437,17 +2441,17 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>0.61948717948717902</v>
+      <c r="A108">
+        <v>0.43862179487179487</v>
       </c>
       <c r="B108">
-        <v>0.800416666666666</v>
+        <v>0.70354700854700858</v>
       </c>
       <c r="C108">
-        <v>0.87667735042734996</v>
+        <v>0.78940170940170939</v>
       </c>
       <c r="E108" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76850427350427297</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -2457,17 +2461,17 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>0.62272435897435896</v>
+      <c r="A109">
+        <v>0.44504273504273506</v>
       </c>
       <c r="B109">
-        <v>0.805544871794871</v>
+        <v>0.71010683760683757</v>
       </c>
       <c r="C109">
-        <v>0.87704059829059799</v>
+        <v>0.78985042735042732</v>
       </c>
       <c r="E109" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76850427350427297</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2477,17 +2481,17 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>0.62579059829059802</v>
+      <c r="A110">
+        <v>0.45134615384615384</v>
       </c>
       <c r="B110">
-        <v>0.81045940170940101</v>
+        <v>0.71637820512820516</v>
       </c>
       <c r="C110">
-        <v>0.87728632478632396</v>
+        <v>0.79020299145299144</v>
       </c>
       <c r="E110" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76850427350427297</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -2497,17 +2501,17 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>0.62903846153846099</v>
+      <c r="A111">
+        <v>0.45831196581196582</v>
       </c>
       <c r="B111">
-        <v>0.81589743589743502</v>
+        <v>0.72321581196581197</v>
       </c>
       <c r="C111">
-        <v>0.877649572649572</v>
+        <v>0.79067307692307698</v>
       </c>
       <c r="E111" s="1">
-        <v>0.852745726495726</v>
+        <v>0.76850427350427297</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -2517,17 +2521,17 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>0.63221153846153799</v>
+      <c r="A112">
+        <v>0.46510683760683763</v>
       </c>
       <c r="B112">
-        <v>0.82179487179487098</v>
+        <v>0.73066239316239312</v>
       </c>
       <c r="C112">
-        <v>0.87786324786324699</v>
+        <v>0.79096153846153849</v>
       </c>
       <c r="E112" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -2537,17 +2541,17 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>0.63564102564102498</v>
+      <c r="A113">
+        <v>0.4719871794871795</v>
       </c>
       <c r="B113">
-        <v>0.82822649572649498</v>
+        <v>0.7383760683760684</v>
       </c>
       <c r="C113">
-        <v>0.87810897435897395</v>
+        <v>0.79138888888888892</v>
       </c>
       <c r="E113" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -2557,17 +2561,17 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>0.63957264957264903</v>
+      <c r="A114">
+        <v>0.47910256410256408</v>
       </c>
       <c r="B114">
-        <v>0.83460470085469995</v>
+        <v>0.74595085470085465</v>
       </c>
       <c r="C114">
-        <v>0.87840811965811905</v>
+        <v>0.79176282051282054</v>
       </c>
       <c r="E114" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -2577,17 +2581,17 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>0.64392094017094004</v>
+      <c r="A115">
+        <v>0.48654914529914528</v>
       </c>
       <c r="B115">
-        <v>0.84168803418803395</v>
+        <v>0.75379273504273503</v>
       </c>
       <c r="C115">
-        <v>0.87864316239316198</v>
+        <v>0.79211538461538467</v>
       </c>
       <c r="E115" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -2597,17 +2601,17 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>0.64800213675213603</v>
+      <c r="A116">
+        <v>0.4934188034188034</v>
       </c>
       <c r="B116">
-        <v>0.84873931623931598</v>
+        <v>0.7614529914529915</v>
       </c>
       <c r="C116">
-        <v>0.87883547008547003</v>
+        <v>0.79248931623931629</v>
       </c>
       <c r="E116" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -2617,17 +2621,17 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>0.65257478632478605</v>
+      <c r="A117">
+        <v>0.50087606837606835</v>
       </c>
       <c r="B117">
-        <v>0.85615384615384604</v>
+        <v>0.76928418803418808</v>
       </c>
       <c r="C117">
-        <v>0.87905982905982905</v>
+        <v>0.79295940170940171</v>
       </c>
       <c r="E117" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2637,17 +2641,17 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>0.656987179487179</v>
+      <c r="A118">
+        <v>0.50799145299145299</v>
       </c>
       <c r="B118">
-        <v>0.86256410256410199</v>
+        <v>0.77621794871794869</v>
       </c>
       <c r="C118">
-        <v>0.87931623931623903</v>
+        <v>0.79370726495726496</v>
       </c>
       <c r="E118" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -2657,17 +2661,17 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>0.66153846153846096</v>
+      <c r="A119">
+        <v>0.51522435897435892</v>
       </c>
       <c r="B119">
-        <v>0.868044871794871</v>
+        <v>0.78245726495726498</v>
       </c>
       <c r="C119">
-        <v>0.87959401709401697</v>
+        <v>0.7943803418803419</v>
       </c>
       <c r="E119" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -2677,17 +2681,17 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>0.66613247863247804</v>
+      <c r="A120">
+        <v>0.52282051282051278</v>
       </c>
       <c r="B120">
-        <v>0.87224358974358895</v>
+        <v>0.78745726495726498</v>
       </c>
       <c r="C120">
-        <v>0.87986111111111098</v>
+        <v>0.79523504273504275</v>
       </c>
       <c r="E120" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -2697,17 +2701,17 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>0.67099358974358903</v>
+      <c r="A121">
+        <v>0.53096153846153848</v>
       </c>
       <c r="B121">
-        <v>0.87533119658119596</v>
+        <v>0.79142094017094022</v>
       </c>
       <c r="C121">
-        <v>0.88008547008547</v>
+        <v>0.79632478632478632</v>
       </c>
       <c r="E121" s="1">
-        <v>0.85283119658119599</v>
+        <v>0.76866452991452905</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2717,17 +2721,17 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>0.67612179487179402</v>
+      <c r="A122">
+        <v>0.53891025641025636</v>
       </c>
       <c r="B122">
-        <v>0.87740384615384603</v>
+        <v>0.79428418803418799</v>
       </c>
       <c r="C122">
-        <v>0.88035256410256402</v>
+        <v>0.79741452991452988</v>
       </c>
       <c r="E122" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2737,17 +2741,17 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>0.68141025641025599</v>
+      <c r="A123">
+        <v>0.54716880341880347</v>
       </c>
       <c r="B123">
-        <v>0.87872863247863198</v>
+        <v>0.79626068376068371</v>
       </c>
       <c r="C123">
-        <v>0.88066239316239303</v>
+        <v>0.79881410256410257</v>
       </c>
       <c r="E123" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -2757,17 +2761,17 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>0.68641025641025599</v>
+      <c r="A124">
+        <v>0.55537393162393167</v>
       </c>
       <c r="B124">
-        <v>0.87983974358974304</v>
+        <v>0.79865384615384616</v>
       </c>
       <c r="C124">
-        <v>0.88092948717948705</v>
+        <v>0.80027777777777775</v>
       </c>
       <c r="E124" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -2777,17 +2781,17 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>0.69176282051282001</v>
+      <c r="A125">
+        <v>0.56364316239316237</v>
       </c>
       <c r="B125">
-        <v>0.88058760683760595</v>
+        <v>0.80086538461538459</v>
       </c>
       <c r="C125">
-        <v>0.88122863247863203</v>
+        <v>0.80134615384615382</v>
       </c>
       <c r="E125" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -2797,17 +2801,17 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>0.69712606837606805</v>
+      <c r="A126">
+        <v>0.57242521367521371</v>
       </c>
       <c r="B126">
-        <v>0.88123931623931595</v>
+        <v>0.8026602564102564</v>
       </c>
       <c r="C126">
-        <v>0.88139957264957203</v>
+        <v>0.8025106837606838</v>
       </c>
       <c r="E126" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -2817,17 +2821,17 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>0.70173076923076905</v>
+      <c r="A127">
+        <v>0.58002136752136757</v>
       </c>
       <c r="B127">
-        <v>0.88174145299145301</v>
+        <v>0.80434829059829061</v>
       </c>
       <c r="C127">
-        <v>0.88163461538461496</v>
+        <v>0.80372863247863247</v>
       </c>
       <c r="E127" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -2837,17 +2841,17 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>0.70631410256410199</v>
+      <c r="A128">
+        <v>0.58751068376068372</v>
       </c>
       <c r="B128">
-        <v>0.88217948717948702</v>
+        <v>0.80608974358974361</v>
       </c>
       <c r="C128">
-        <v>0.88185897435897398</v>
+        <v>0.80503205128205124</v>
       </c>
       <c r="E128" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -2857,17 +2861,17 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>0.71030982905982898</v>
+      <c r="A129">
+        <v>0.59443376068376064</v>
       </c>
       <c r="B129">
-        <v>0.88266025641025603</v>
+        <v>0.80784188034188031</v>
       </c>
       <c r="C129">
-        <v>0.88221153846153799</v>
+        <v>0.80655982905982904</v>
       </c>
       <c r="E129" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -2877,17 +2881,17 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>0.71465811965811898</v>
+      <c r="A130">
+        <v>0.6019978632478632</v>
       </c>
       <c r="B130">
-        <v>0.88301282051282004</v>
+        <v>0.80960470085470082</v>
       </c>
       <c r="C130">
-        <v>0.88235042735042701</v>
+        <v>0.80786324786324781</v>
       </c>
       <c r="E130" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -2897,17 +2901,17 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>0.71881410256410205</v>
+      <c r="A131">
+        <v>0.60950854700854706</v>
       </c>
       <c r="B131">
-        <v>0.883258547008547</v>
+        <v>0.81116452991452992</v>
       </c>
       <c r="C131">
-        <v>0.88251068376068298</v>
+        <v>0.8092521367521367</v>
       </c>
       <c r="E131" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -2917,17 +2921,17 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>0.72324786324786305</v>
+      <c r="A132">
+        <v>0.61740384615384614</v>
       </c>
       <c r="B132">
-        <v>0.88351495726495699</v>
+        <v>0.81236111111111109</v>
       </c>
       <c r="C132">
-        <v>0.88282051282051199</v>
+        <v>0.81065170940170939</v>
       </c>
       <c r="E132" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -2937,17 +2941,17 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>0.72782051282051197</v>
+      <c r="A133">
+        <v>0.62560897435897433</v>
       </c>
       <c r="B133">
-        <v>0.883867521367521</v>
+        <v>0.81363247863247867</v>
       </c>
       <c r="C133">
-        <v>0.88301282051282004</v>
+        <v>0.81191239316239316</v>
       </c>
       <c r="E133" s="1">
-        <v>0.85284188034188002</v>
+        <v>0.76867521367521296</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -2957,17 +2961,17 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>0.73230769230769199</v>
+      <c r="A134">
+        <v>0.63387820512820514</v>
       </c>
       <c r="B134">
-        <v>0.88408119658119599</v>
+        <v>0.81474358974358974</v>
       </c>
       <c r="C134">
-        <v>0.88326923076923003</v>
+        <v>0.81314102564102564</v>
       </c>
       <c r="E134" s="1">
-        <v>0.85290598290598196</v>
+        <v>0.769038461538461</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -2977,17 +2981,17 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>0.73638888888888798</v>
+      <c r="A135">
+        <v>0.64196581196581193</v>
       </c>
       <c r="B135">
-        <v>0.88431623931623904</v>
+        <v>0.81603632478632482</v>
       </c>
       <c r="C135">
-        <v>0.88356837606837602</v>
+        <v>0.81442307692307692</v>
       </c>
       <c r="E135" s="1">
-        <v>0.85290598290598196</v>
+        <v>0.769038461538461</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2997,17 +3001,17 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>0.74085470085469995</v>
+      <c r="A136">
+        <v>0.65013888888888893</v>
       </c>
       <c r="B136">
-        <v>0.8846047008547</v>
+        <v>0.81721153846153849</v>
       </c>
       <c r="C136">
-        <v>0.88377136752136698</v>
+        <v>0.81554487179487178</v>
       </c>
       <c r="E136" s="1">
-        <v>0.85290598290598196</v>
+        <v>0.769038461538461</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -3017,17 +3021,17 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>0.74509615384615302</v>
+      <c r="A137">
+        <v>0.6579059829059829</v>
       </c>
       <c r="B137">
-        <v>0.88491452991452901</v>
+        <v>0.81854700854700857</v>
       </c>
       <c r="C137">
-        <v>0.88404914529914502</v>
+        <v>0.81677350427350426</v>
       </c>
       <c r="E137" s="1">
-        <v>0.85290598290598196</v>
+        <v>0.769038461538461</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -3037,17 +3041,17 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>0.74972222222222196</v>
+      <c r="A138">
+        <v>0.66583333333333339</v>
       </c>
       <c r="B138">
-        <v>0.88513888888888803</v>
+        <v>0.81956196581196583</v>
       </c>
       <c r="C138">
-        <v>0.88429487179487098</v>
+        <v>0.81795940170940173</v>
       </c>
       <c r="E138" s="1">
-        <v>0.85290598290598196</v>
+        <v>0.769038461538461</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -3057,17 +3061,17 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>0.75463675213675196</v>
+      <c r="A139">
+        <v>0.67372863247863246</v>
       </c>
       <c r="B139">
-        <v>0.88543803418803402</v>
+        <v>0.82042735042735038</v>
       </c>
       <c r="C139">
-        <v>0.88455128205128197</v>
+        <v>0.8189529914529915</v>
       </c>
       <c r="E139" s="1">
-        <v>0.85290598290598196</v>
+        <v>0.769038461538461</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -3077,17 +3081,17 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>0.759561965811965</v>
+      <c r="A140">
+        <v>0.6808440170940171</v>
       </c>
       <c r="B140">
-        <v>0.88575854700854695</v>
+        <v>0.82137820512820514</v>
       </c>
       <c r="C140">
-        <v>0.88485042735042696</v>
+        <v>0.81983974358974354</v>
       </c>
       <c r="E140" s="1">
-        <v>0.85290598290598196</v>
+        <v>0.769038461538461</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -3097,17 +3101,17 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>0.76457264957264903</v>
+      <c r="A141">
+        <v>0.68793803418803423</v>
       </c>
       <c r="B141">
-        <v>0.88610042735042704</v>
+        <v>0.8223824786324786</v>
       </c>
       <c r="C141">
-        <v>0.88504273504273501</v>
+        <v>0.82048076923076918</v>
       </c>
       <c r="E141" s="1">
-        <v>0.85290598290598196</v>
+        <v>0.769038461538461</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -3117,17 +3121,17 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>0.76919871794871797</v>
+      <c r="A142">
+        <v>0.69475427350427355</v>
       </c>
       <c r="B142">
-        <v>0.88648504273504203</v>
+        <v>0.82339743589743586</v>
       </c>
       <c r="C142">
-        <v>0.88532051282051205</v>
+        <v>0.82149572649572644</v>
       </c>
       <c r="E142" s="1">
-        <v>0.85299145299145296</v>
+        <v>0.76914529914529906</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -3137,17 +3141,17 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>0.77385683760683699</v>
+      <c r="A143">
+        <v>0.70177350427350427</v>
       </c>
       <c r="B143">
-        <v>0.88676282051281996</v>
+        <v>0.82438034188034193</v>
       </c>
       <c r="C143">
-        <v>0.88560897435897401</v>
+        <v>0.82245726495726501</v>
       </c>
       <c r="E143" s="1">
-        <v>0.85299145299145296</v>
+        <v>0.76914529914529906</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -3157,17 +3161,17 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>0.77863247863247798</v>
+      <c r="A144">
+        <v>0.70864316239316238</v>
       </c>
       <c r="B144">
-        <v>0.88697649572649495</v>
+        <v>0.82516025641025637</v>
       </c>
       <c r="C144">
-        <v>0.88583333333333303</v>
+        <v>0.82326923076923075</v>
       </c>
       <c r="E144" s="1">
-        <v>0.85299145299145296</v>
+        <v>0.76914529914529906</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -3177,17 +3181,17 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>0.78289529914529898</v>
+      <c r="A145">
+        <v>0.71516025641025638</v>
       </c>
       <c r="B145">
-        <v>0.88739316239316202</v>
+        <v>0.82613247863247863</v>
       </c>
       <c r="C145">
-        <v>0.88622863247863204</v>
+        <v>0.82439102564102562</v>
       </c>
       <c r="E145" s="1">
-        <v>0.85299145299145296</v>
+        <v>0.76914529914529906</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -3197,17 +3201,17 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>0.78720085470085399</v>
+      <c r="A146">
+        <v>0.72124999999999995</v>
       </c>
       <c r="B146">
-        <v>0.88771367521367495</v>
+        <v>0.82686965811965807</v>
       </c>
       <c r="C146">
-        <v>0.88646367521367497</v>
+        <v>0.82496794871794876</v>
       </c>
       <c r="E146" s="1">
-        <v>0.85299145299145296</v>
+        <v>0.76914529914529906</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -3217,17 +3221,17 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>0.792158119658119</v>
+      <c r="A147">
+        <v>0.72788461538461535</v>
       </c>
       <c r="B147">
-        <v>0.88800213675213602</v>
+        <v>0.82767094017094012</v>
       </c>
       <c r="C147">
-        <v>0.88679487179487104</v>
+        <v>0.8257051282051282</v>
       </c>
       <c r="E147" s="1">
-        <v>0.85299145299145296</v>
+        <v>0.76914529914529906</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -3237,17 +3241,17 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>0.79729700854700802</v>
+      <c r="A148">
+        <v>0.73485042735042738</v>
       </c>
       <c r="B148">
-        <v>0.88827991452991395</v>
+        <v>0.82836538461538467</v>
       </c>
       <c r="C148">
-        <v>0.887126068376068</v>
+        <v>0.82650641025641025</v>
       </c>
       <c r="E148" s="1">
-        <v>0.85299145299145296</v>
+        <v>0.76914529914529906</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -3257,17 +3261,17 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>0.80336538461538398</v>
+      <c r="A149">
+        <v>0.74256410256410255</v>
       </c>
       <c r="B149">
-        <v>0.88869658119658101</v>
+        <v>0.82923076923076922</v>
       </c>
       <c r="C149">
-        <v>0.88747863247863201</v>
+        <v>0.82719017094017089</v>
       </c>
       <c r="E149" s="1">
-        <v>0.85301282051282001</v>
+        <v>0.769166666666666</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -3277,17 +3281,17 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>0.80917735042734995</v>
+      <c r="A150">
+        <v>0.74993589743589739</v>
       </c>
       <c r="B150">
-        <v>0.88902777777777697</v>
+        <v>0.82989316239316235</v>
       </c>
       <c r="C150">
-        <v>0.887863247863247</v>
+        <v>0.82809829059829054</v>
       </c>
       <c r="E150" s="1">
-        <v>0.85301282051282001</v>
+        <v>0.769166666666666</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -3297,17 +3301,17 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>0.81631410256410197</v>
+      <c r="A151">
+        <v>0.75858974358974363</v>
       </c>
       <c r="B151">
-        <v>0.88940170940170904</v>
+        <v>0.83068376068376071</v>
       </c>
       <c r="C151">
-        <v>0.88810897435897396</v>
+        <v>0.8288675213675214</v>
       </c>
       <c r="E151" s="1">
-        <v>0.85301282051282001</v>
+        <v>0.769166666666666</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -3317,17 +3321,17 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>0.82452991452991398</v>
+      <c r="A152">
+        <v>0.7680769230769231</v>
       </c>
       <c r="B152">
-        <v>0.889732905982906</v>
+        <v>0.83153846153846156</v>
       </c>
       <c r="C152">
-        <v>0.88846153846153797</v>
+        <v>0.82982905982905986</v>
       </c>
       <c r="E152" s="1">
-        <v>0.85489316239316204</v>
+        <v>0.77342948717948701</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -3337,17 +3341,17 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>0.83358974358974303</v>
+      <c r="A153">
+        <v>0.77858974358974364</v>
       </c>
       <c r="B153">
-        <v>0.89014957264957195</v>
+        <v>0.83261752136752132</v>
       </c>
       <c r="C153">
-        <v>0.88884615384615295</v>
+        <v>0.83086538461538462</v>
       </c>
       <c r="E153" s="1">
-        <v>0.85489316239316204</v>
+        <v>0.77342948717948701</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -3357,17 +3361,17 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>0.84235042735042698</v>
+      <c r="A154">
+        <v>0.78917735042735038</v>
       </c>
       <c r="B154">
-        <v>0.89050213675213596</v>
+        <v>0.83360042735042739</v>
       </c>
       <c r="C154">
-        <v>0.88927350427350405</v>
+        <v>0.83174145299145297</v>
       </c>
       <c r="E154" s="1">
-        <v>0.85489316239316204</v>
+        <v>0.77342948717948701</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -3377,17 +3381,17 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>0.85027777777777702</v>
+      <c r="A155">
+        <v>0.79894230769230767</v>
       </c>
       <c r="B155">
-        <v>0.890950854700854</v>
+        <v>0.83489316239316236</v>
       </c>
       <c r="C155">
-        <v>0.88971153846153805</v>
+        <v>0.83271367521367523</v>
       </c>
       <c r="E155" s="1">
-        <v>0.85489316239316204</v>
+        <v>0.77342948717948701</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -3397,17 +3401,17 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>0.85802350427350405</v>
+      <c r="A156">
+        <v>0.80861111111111106</v>
       </c>
       <c r="B156">
-        <v>0.891474358974359</v>
+        <v>0.83623931623931624</v>
       </c>
       <c r="C156">
-        <v>0.89033119658119597</v>
+        <v>0.8339636752136752</v>
       </c>
       <c r="E156" s="1">
-        <v>0.85489316239316204</v>
+        <v>0.77342948717948701</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -3417,17 +3421,17 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>0.86551282051281997</v>
+      <c r="A157">
+        <v>0.81825854700854705</v>
       </c>
       <c r="B157">
-        <v>0.89202991452991398</v>
+        <v>0.83770299145299143</v>
       </c>
       <c r="C157">
-        <v>0.89084401709401695</v>
+        <v>0.83491452991452997</v>
       </c>
       <c r="E157" s="1">
-        <v>0.85489316239316204</v>
+        <v>0.77342948717948701</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -3437,17 +3441,17 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>0.87263888888888796</v>
+      <c r="A158">
+        <v>0.82777777777777772</v>
       </c>
       <c r="B158">
-        <v>0.89246794871794799</v>
+        <v>0.83891025641025641</v>
       </c>
       <c r="C158">
-        <v>0.89124999999999999</v>
+        <v>0.83601495726495723</v>
       </c>
       <c r="E158" s="1">
-        <v>0.85489316239316204</v>
+        <v>0.77342948717948701</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -3457,17 +3461,17 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>0.87985042735042696</v>
+      <c r="A159">
+        <v>0.83739316239316242</v>
       </c>
       <c r="B159">
-        <v>0.89298076923076897</v>
+        <v>0.84059829059829061</v>
       </c>
       <c r="C159">
-        <v>0.89166666666666605</v>
+        <v>0.8370726495726496</v>
       </c>
       <c r="E159" s="1">
-        <v>0.85489316239316204</v>
+        <v>0.77342948717948701</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -3477,17 +3481,17 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>0.88614316239316204</v>
+      <c r="A160">
+        <v>0.84652777777777777</v>
       </c>
       <c r="B160">
-        <v>0.89356837606837602</v>
+        <v>0.84228632478632481</v>
       </c>
       <c r="C160">
-        <v>0.89213675213675203</v>
+        <v>0.83818376068376066</v>
       </c>
       <c r="E160" s="1">
-        <v>0.85496794871794801</v>
+        <v>0.773514957264957</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -3497,17 +3501,17 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>0.89166666666666605</v>
+      <c r="A161">
+        <v>0.85516025641025639</v>
       </c>
       <c r="B161">
-        <v>0.89429487179487099</v>
+        <v>0.84423076923076923</v>
       </c>
       <c r="C161">
-        <v>0.89259615384615298</v>
+        <v>0.83927350427350422</v>
       </c>
       <c r="E161" s="1">
-        <v>0.85497863247863204</v>
+        <v>0.77352564102564103</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -3517,17 +3521,17 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>0.89636752136752096</v>
+      <c r="A162">
+        <v>0.86310897435897438</v>
       </c>
       <c r="B162">
-        <v>0.89502136752136696</v>
+        <v>0.84665598290598287</v>
       </c>
       <c r="C162">
-        <v>0.89316239316239299</v>
+        <v>0.84087606837606843</v>
       </c>
       <c r="E162" s="1">
-        <v>0.85549145299145302</v>
+        <v>0.774861111111111</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -3537,17 +3541,17 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>0.90008547008547002</v>
+      <c r="A163">
+        <v>0.86990384615384619</v>
       </c>
       <c r="B163">
-        <v>0.89630341880341802</v>
+        <v>0.84978632478632476</v>
       </c>
       <c r="C163">
-        <v>0.89387820512820504</v>
+        <v>0.84274572649572654</v>
       </c>
       <c r="E163" s="1">
-        <v>0.85549145299145302</v>
+        <v>0.774861111111111</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -3557,17 +3561,17 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>0.903034188034188</v>
+      <c r="A164">
+        <v>0.87587606837606835</v>
       </c>
       <c r="B164">
-        <v>0.89808760683760602</v>
+        <v>0.85321581196581198</v>
       </c>
       <c r="C164">
-        <v>0.89465811965811903</v>
+        <v>0.84485042735042737</v>
       </c>
       <c r="E164" s="1">
-        <v>0.85549145299145302</v>
+        <v>0.774861111111111</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -3577,17 +3581,17 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>0.90552350427350403</v>
+      <c r="A165">
+        <v>0.88188034188034192</v>
       </c>
       <c r="B165">
-        <v>0.899903846153846</v>
+        <v>0.85644230769230767</v>
       </c>
       <c r="C165">
-        <v>0.89560897435897402</v>
+        <v>0.84729700854700851</v>
       </c>
       <c r="E165" s="1">
-        <v>0.85549145299145302</v>
+        <v>0.774861111111111</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -3597,17 +3601,17 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>0.907510683760683</v>
+      <c r="A166">
+        <v>0.88724358974358974</v>
       </c>
       <c r="B166">
-        <v>0.90132478632478596</v>
+        <v>0.85964743589743586</v>
       </c>
       <c r="C166">
-        <v>0.89701923076922996</v>
+        <v>0.8503525641025641</v>
       </c>
       <c r="E166" s="1">
-        <v>0.85549145299145302</v>
+        <v>0.774861111111111</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -3617,17 +3621,17 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>0.909423076923076</v>
+      <c r="A167">
+        <v>0.89224358974358975</v>
       </c>
       <c r="B167">
-        <v>0.90283119658119604</v>
+        <v>0.86331196581196579</v>
       </c>
       <c r="C167">
-        <v>0.89887820512820504</v>
+        <v>0.85336538461538458</v>
       </c>
       <c r="E167" s="1">
-        <v>0.85614316239316202</v>
+        <v>0.77826923076923005</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -3637,17 +3641,17 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>0.91116452991452901</v>
+      <c r="A168">
+        <v>0.89642094017094021</v>
       </c>
       <c r="B168">
-        <v>0.90458333333333296</v>
+        <v>0.86762820512820515</v>
       </c>
       <c r="C168">
-        <v>0.90076923076922999</v>
+        <v>0.85624999999999996</v>
       </c>
       <c r="E168" s="1">
-        <v>0.85614316239316202</v>
+        <v>0.77826923076923005</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -3657,17 +3661,17 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>0.91289529914529899</v>
+      <c r="A169">
+        <v>0.90069444444444446</v>
       </c>
       <c r="B169">
-        <v>0.90582264957264902</v>
+        <v>0.8717628205128205</v>
       </c>
       <c r="C169">
-        <v>0.90219017094017095</v>
+        <v>0.85888888888888892</v>
       </c>
       <c r="E169" s="1">
-        <v>0.85614316239316202</v>
+        <v>0.77826923076923005</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -3677,17 +3681,17 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>0.91433760683760601</v>
+      <c r="A170">
+        <v>0.90472222222222221</v>
       </c>
       <c r="B170">
-        <v>0.90709401709401705</v>
+        <v>0.87633547008547008</v>
       </c>
       <c r="C170">
-        <v>0.90346153846153798</v>
+        <v>0.86167735042735039</v>
       </c>
       <c r="E170" s="1">
-        <v>0.85614316239316202</v>
+        <v>0.77826923076923005</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -3697,17 +3701,17 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>0.91565170940170904</v>
+      <c r="A171">
+        <v>0.90823717948717952</v>
       </c>
       <c r="B171">
-        <v>0.90832264957264897</v>
+        <v>0.88089743589743585</v>
       </c>
       <c r="C171">
-        <v>0.90506410256410197</v>
+        <v>0.8652136752136752</v>
       </c>
       <c r="E171" s="1">
-        <v>0.85614316239316202</v>
+        <v>0.77826923076923005</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -3717,17 +3721,17 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>0.91730769230769205</v>
+      <c r="A172">
+        <v>0.91210470085470086</v>
       </c>
       <c r="B172">
-        <v>0.90959401709401699</v>
+        <v>0.88528846153846152</v>
       </c>
       <c r="C172">
-        <v>0.90632478632478597</v>
+        <v>0.86894230769230774</v>
       </c>
       <c r="E172" s="1">
-        <v>0.85618589743589701</v>
+        <v>0.77832264957264896</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -3737,17 +3741,17 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>0.91903846153846103</v>
+      <c r="A173">
+        <v>0.91566239316239317</v>
       </c>
       <c r="B173">
-        <v>0.91079059829059805</v>
+        <v>0.88972222222222219</v>
       </c>
       <c r="C173">
-        <v>0.90740384615384595</v>
+        <v>0.87321581196581199</v>
       </c>
       <c r="E173" s="1">
-        <v>0.85618589743589701</v>
+        <v>0.77832264957264896</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -3757,17 +3761,17 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>0.92121794871794804</v>
+      <c r="A174">
+        <v>0.91920940170940169</v>
       </c>
       <c r="B174">
-        <v>0.91205128205128205</v>
+        <v>0.89443376068376068</v>
       </c>
       <c r="C174">
-        <v>0.90865384615384603</v>
+        <v>0.87813034188034189</v>
       </c>
       <c r="E174" s="1">
-        <v>0.85618589743589701</v>
+        <v>0.77832264957264896</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -3777,17 +3781,17 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>0.92340811965811898</v>
+      <c r="A175">
+        <v>0.92225427350427347</v>
       </c>
       <c r="B175">
-        <v>0.913333333333333</v>
+        <v>0.89895299145299146</v>
       </c>
       <c r="C175">
-        <v>0.90969017094017002</v>
+        <v>0.88287393162393157</v>
       </c>
       <c r="E175" s="1">
-        <v>0.85766025641025601</v>
+        <v>0.78033119658119598</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -3797,17 +3801,17 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>0.92589743589743501</v>
+      <c r="A176">
+        <v>0.92534188034188036</v>
       </c>
       <c r="B176">
-        <v>0.91466880341880297</v>
+        <v>0.90318376068376072</v>
       </c>
       <c r="C176">
-        <v>0.91089743589743499</v>
+        <v>0.88772435897435897</v>
       </c>
       <c r="E176" s="1">
-        <v>0.85824786324786295</v>
+        <v>0.78098290598290598</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -3817,17 +3821,17 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>0.92886752136752104</v>
+      <c r="A177">
+        <v>0.92862179487179486</v>
       </c>
       <c r="B177">
-        <v>0.91623931623931598</v>
+        <v>0.90766025641025638</v>
       </c>
       <c r="C177">
-        <v>0.91222222222222205</v>
+        <v>0.89261752136752137</v>
       </c>
       <c r="E177" s="1">
-        <v>0.85824786324786295</v>
+        <v>0.78098290598290598</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -3837,17 +3841,17 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>0.93233974358974303</v>
+      <c r="A178">
+        <v>0.93224358974358978</v>
       </c>
       <c r="B178">
-        <v>0.917809829059829</v>
+        <v>0.91175213675213673</v>
       </c>
       <c r="C178">
-        <v>0.91347222222222202</v>
+        <v>0.89732905982905986</v>
       </c>
       <c r="E178" s="1">
-        <v>0.85824786324786295</v>
+        <v>0.78098290598290598</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -3857,17 +3861,17 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>0.93622863247863197</v>
+      <c r="A179">
+        <v>0.93619658119658122</v>
       </c>
       <c r="B179">
-        <v>0.91962606837606797</v>
+        <v>0.91561965811965806</v>
       </c>
       <c r="C179">
-        <v>0.91460470085470003</v>
+        <v>0.90155982905982901</v>
       </c>
       <c r="E179" s="1">
-        <v>0.85824786324786295</v>
+        <v>0.78098290598290598</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -3877,17 +3881,17 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>0.94138888888888805</v>
+      <c r="A180">
+        <v>0.94137820512820514</v>
       </c>
       <c r="B180">
-        <v>0.921634615384615</v>
+        <v>0.91923076923076918</v>
       </c>
       <c r="C180">
-        <v>0.91590811965811902</v>
+        <v>0.90549145299145295</v>
       </c>
       <c r="E180" s="1">
-        <v>0.85824786324786295</v>
+        <v>0.78098290598290598</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -3897,17 +3901,17 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>0.94732905982905902</v>
+      <c r="A181">
+        <v>0.9473183760683761</v>
       </c>
       <c r="B181">
-        <v>0.92398504273504201</v>
+        <v>0.92283119658119661</v>
       </c>
       <c r="C181">
-        <v>0.91727564102564096</v>
+        <v>0.90976495726495732</v>
       </c>
       <c r="E181" s="1">
-        <v>0.85824786324786295</v>
+        <v>0.78098290598290598</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -3917,17 +3921,17 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>0.95389957264957204</v>
+      <c r="A182">
+        <v>0.9538995726495727</v>
       </c>
       <c r="B182">
-        <v>0.92657051282051195</v>
+        <v>0.92606837606837611</v>
       </c>
       <c r="C182">
-        <v>0.91870726495726496</v>
+        <v>0.91372863247863245</v>
       </c>
       <c r="E182" s="1">
-        <v>0.86176282051282005</v>
+        <v>0.78862179487179396</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -3937,17 +3941,17 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>0.96091880341880298</v>
+      <c r="A183">
+        <v>0.96091880341880342</v>
       </c>
       <c r="B183">
-        <v>0.92940170940170896</v>
+        <v>0.92917735042735039</v>
       </c>
       <c r="C183">
-        <v>0.92071581196581198</v>
+        <v>0.9177777777777778</v>
       </c>
       <c r="E183" s="1">
-        <v>0.86176282051282005</v>
+        <v>0.78862179487179396</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -3957,17 +3961,17 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>0.96712606837606796</v>
+      <c r="A184">
+        <v>0.9671260683760684</v>
       </c>
       <c r="B184">
-        <v>0.93246794871794803</v>
+        <v>0.93238247863247858</v>
       </c>
       <c r="C184">
-        <v>0.92297008547008497</v>
+        <v>0.9212072649572649</v>
       </c>
       <c r="E184" s="1">
-        <v>0.86176282051282005</v>
+        <v>0.78862179487179396</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -3977,17 +3981,17 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>0.97242521367521295</v>
+      <c r="A185">
+        <v>0.97242521367521373</v>
       </c>
       <c r="B185">
-        <v>0.93676282051282</v>
+        <v>0.93669871794871795</v>
       </c>
       <c r="C185">
-        <v>0.92501068376068296</v>
+        <v>0.92415598290598289</v>
       </c>
       <c r="E185" s="1">
-        <v>0.86176282051282005</v>
+        <v>0.78862179487179396</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -3997,17 +4001,17 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+      <c r="A186">
         <v>0.97825854700854697</v>
       </c>
       <c r="B186">
-        <v>0.94276709401709402</v>
+        <v>0.94273504273504272</v>
       </c>
       <c r="C186">
-        <v>0.92771367521367498</v>
+        <v>0.92733974358974358</v>
       </c>
       <c r="E186" s="1">
-        <v>0.86182692307692299</v>
+        <v>0.78869658119658104</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -4017,17 +4021,17 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>0.98513888888888801</v>
+      <c r="A187">
+        <v>0.9851388888888889</v>
       </c>
       <c r="B187">
-        <v>0.95021367521367495</v>
+        <v>0.95021367521367517</v>
       </c>
       <c r="C187">
-        <v>0.93034188034188003</v>
+        <v>0.93019230769230765</v>
       </c>
       <c r="E187" s="1">
-        <v>0.862873931623931</v>
+        <v>0.79054487179487098</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -4037,17 +4041,17 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>0.99160256410256398</v>
+      <c r="A188">
+        <v>0.99160256410256409</v>
       </c>
       <c r="B188">
-        <v>0.95835470085469998</v>
+        <v>0.95835470085470087</v>
       </c>
       <c r="C188">
-        <v>0.93347222222222204</v>
+        <v>0.93341880341880346</v>
       </c>
       <c r="E188" s="1">
-        <v>0.862873931623931</v>
+        <v>0.79054487179487098</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -4057,17 +4061,17 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>0.99611111111111095</v>
+      <c r="A189">
+        <v>0.99611111111111106</v>
       </c>
       <c r="B189">
-        <v>0.96581196581196505</v>
+        <v>0.96581196581196582</v>
       </c>
       <c r="C189">
-        <v>0.93732905982905901</v>
+        <v>0.93727564102564098</v>
       </c>
       <c r="E189" s="1">
-        <v>0.862873931623931</v>
+        <v>0.79054487179487098</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -4077,17 +4081,17 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>0.99844017094017001</v>
+      <c r="A190">
+        <v>0.9984401709401709</v>
       </c>
       <c r="B190">
         <v>0.97325854700854697</v>
       </c>
       <c r="C190">
-        <v>0.94198717948717903</v>
+        <v>0.94196581196581197</v>
       </c>
       <c r="E190" s="1">
-        <v>0.86288461538461503</v>
+        <v>0.79055555555555501</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -4097,17 +4101,17 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>0.99938034188034097</v>
+      <c r="A191">
+        <v>0.99938034188034186</v>
       </c>
       <c r="B191">
-        <v>0.98119658119658104</v>
+        <v>0.98119658119658115</v>
       </c>
       <c r="C191">
-        <v>0.94774572649572597</v>
+        <v>0.94774572649572653</v>
       </c>
       <c r="E191" s="1">
-        <v>0.86339743589743501</v>
+        <v>0.79143162393162303</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -4117,17 +4121,17 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+      <c r="A192">
         <v>0.99977564102564098</v>
       </c>
       <c r="B192">
-        <v>0.98873931623931599</v>
+        <v>0.98873931623931621</v>
       </c>
       <c r="C192">
-        <v>0.95402777777777703</v>
+        <v>0.95402777777777781</v>
       </c>
       <c r="E192" s="1">
-        <v>0.86702991452991396</v>
+        <v>0.79923076923076897</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -4137,17 +4141,17 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>0.99993589743589695</v>
+      <c r="A193">
+        <v>0.99993589743589739</v>
       </c>
       <c r="B193">
-        <v>0.99431623931623903</v>
+        <v>0.99431623931623936</v>
       </c>
       <c r="C193">
-        <v>0.96122863247863199</v>
+        <v>0.96122863247863244</v>
       </c>
       <c r="E193" s="1">
-        <v>0.86708333333333298</v>
+        <v>0.79928418803418799</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -4157,17 +4161,17 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>0.99997863247863195</v>
+      <c r="A194">
+        <v>0.9999786324786325</v>
       </c>
       <c r="B194">
-        <v>0.997564102564102</v>
+        <v>0.99756410256410255</v>
       </c>
       <c r="C194">
-        <v>0.96872863247863195</v>
+        <v>0.9687286324786325</v>
       </c>
       <c r="E194" s="1">
-        <v>0.87423076923076903</v>
+        <v>0.817061965811965</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -4177,17 +4181,17 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>0.99998931623931597</v>
+      <c r="A195">
+        <v>0.99998931623931619</v>
       </c>
       <c r="B195">
-        <v>0.99909188034188001</v>
+        <v>0.99909188034188035</v>
       </c>
       <c r="C195">
-        <v>0.97702991452991395</v>
+        <v>0.9770299145299145</v>
       </c>
       <c r="E195" s="1">
-        <v>0.87423076923076903</v>
+        <v>0.817061965811965</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -4197,17 +4201,17 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>0.99998931623931597</v>
+      <c r="A196">
+        <v>0.99998931623931619</v>
       </c>
       <c r="B196">
-        <v>0.99963675213675196</v>
+        <v>0.99963675213675218</v>
       </c>
       <c r="C196">
-        <v>0.98513888888888801</v>
+        <v>0.9851388888888889</v>
       </c>
       <c r="E196" s="1">
-        <v>0.87423076923076903</v>
+        <v>0.817061965811965</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -4217,17 +4221,17 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>0.99998931623931597</v>
+      <c r="A197">
+        <v>0.99998931623931619</v>
       </c>
       <c r="B197">
-        <v>0.99986111111111098</v>
+        <v>0.99986111111111109</v>
       </c>
       <c r="C197">
         <v>0.99151709401709398</v>
       </c>
       <c r="E197" s="1">
-        <v>0.87425213675213598</v>
+        <v>0.81708333333333305</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -4237,17 +4241,17 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+      <c r="A198">
         <v>1</v>
       </c>
       <c r="B198">
-        <v>0.99994658119658097</v>
+        <v>0.9999465811965812</v>
       </c>
       <c r="C198">
-        <v>0.995566239316239</v>
+        <v>0.99556623931623933</v>
       </c>
       <c r="E198" s="1">
-        <v>0.88835470085470003</v>
+        <v>0.84798076923076904</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -4257,17 +4261,17 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+      <c r="A199">
         <v>1</v>
       </c>
       <c r="B199">
-        <v>0.99998931623931597</v>
+        <v>0.99998931623931619</v>
       </c>
       <c r="C199">
-        <v>0.99793803418803395</v>
+        <v>0.99793803418803417</v>
       </c>
       <c r="E199" s="1">
-        <v>0.88835470085470003</v>
+        <v>0.84798076923076904</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -4277,17 +4281,17 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+      <c r="A200">
         <v>1</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200">
-        <v>0.99920940170940098</v>
+        <v>0.99920940170940176</v>
       </c>
       <c r="E200" s="1">
-        <v>0.88835470085470003</v>
+        <v>0.84798076923076904</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -4297,17 +4301,17 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+      <c r="A201">
         <v>1</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201">
-        <v>0.99972222222222196</v>
+        <v>0.99972222222222218</v>
       </c>
       <c r="E201" s="1">
-        <v>0.88850427350427297</v>
+        <v>0.84813034188034098</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -4317,17 +4321,17 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+      <c r="A202">
         <v>1</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202">
-        <v>0.99988247863247803</v>
+        <v>0.99988247863247859</v>
       </c>
       <c r="E202" s="1">
-        <v>0.88850427350427297</v>
+        <v>0.84813034188034098</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -4337,17 +4341,17 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+      <c r="A203">
         <v>1</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203">
-        <v>0.99996794871794803</v>
+        <v>0.9999679487179487</v>
       </c>
       <c r="E203" s="1">
-        <v>0.89068376068375998</v>
+        <v>0.85164529914529896</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -4357,7 +4361,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+      <c r="A204">
         <v>1</v>
       </c>
       <c r="B204">
@@ -4367,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="E204" s="1">
-        <v>0.89648504273504204</v>
+        <v>0.86253205128205102</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -4377,7 +4381,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+      <c r="A205">
         <v>1</v>
       </c>
       <c r="B205">
@@ -4387,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E205" s="1">
-        <v>0.90119658119658097</v>
+        <v>0.87</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -4397,7 +4401,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+      <c r="A206">
         <v>1</v>
       </c>
       <c r="B206">
@@ -4407,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="E206" s="1">
-        <v>0.90119658119658097</v>
+        <v>0.87</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -4417,7 +4421,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+      <c r="A207">
         <v>1</v>
       </c>
       <c r="B207">
@@ -4427,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="E207" s="1">
-        <v>0.90136752136752096</v>
+        <v>0.87017094017093999</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -4437,7 +4441,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+      <c r="A208">
         <v>1</v>
       </c>
       <c r="B208">
@@ -4447,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="E208" s="1">
-        <v>0.90661324786324704</v>
+        <v>0.88027777777777705</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -4457,7 +4461,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+      <c r="A209">
         <v>1</v>
       </c>
       <c r="B209">
@@ -4467,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="E209" s="1">
-        <v>0.93715811965811902</v>
+        <v>0.92040598290598197</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -4477,7 +4481,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+      <c r="A210">
         <v>1</v>
       </c>
       <c r="B210">
@@ -4487,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="E210" s="1">
-        <v>0.94401709401709399</v>
+        <v>0.93408119658119604</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -4497,7 +4501,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+      <c r="A211">
         <v>1</v>
       </c>
       <c r="B211">
@@ -4507,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="1">
-        <v>0.94405982905982899</v>
+        <v>0.93412393162393104</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -4517,7 +4521,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+      <c r="A212">
         <v>1</v>
       </c>
       <c r="B212">
@@ -4527,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="E212" s="1">
-        <v>0.94483974358974299</v>
+        <v>0.93490384615384603</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -4537,7 +4541,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+      <c r="A213">
         <v>1</v>
       </c>
       <c r="B213">
@@ -4547,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="E213" s="1">
-        <v>0.94483974358974299</v>
+        <v>0.93490384615384603</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -4557,7 +4561,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+      <c r="A214">
         <v>1</v>
       </c>
       <c r="B214">
@@ -4567,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E214" s="1">
-        <v>0.94633547008547003</v>
+        <v>0.93681623931623903</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -4577,7 +4581,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+      <c r="A215">
         <v>1</v>
       </c>
       <c r="B215">
@@ -4587,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="E215" s="1">
-        <v>0.95823717948717901</v>
+        <v>0.95004273504273495</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -4597,7 +4601,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+      <c r="A216">
         <v>1</v>
       </c>
       <c r="B216">
@@ -4607,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="E216" s="1">
-        <v>0.95825854700854696</v>
+        <v>0.95006410256410201</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -4617,7 +4621,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+      <c r="A217">
         <v>1</v>
       </c>
       <c r="B217">
@@ -4627,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="E217" s="1">
-        <v>0.95883547008546999</v>
+        <v>0.95064102564102504</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -4637,7 +4641,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+      <c r="A218">
         <v>1</v>
       </c>
       <c r="B218">
@@ -4647,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="1">
-        <v>0.95884615384615302</v>
+        <v>0.95065170940170896</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -4657,7 +4661,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+      <c r="A219">
         <v>1</v>
       </c>
       <c r="B219">
@@ -4667,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="E219" s="1">
-        <v>0.96507478632478605</v>
+        <v>0.95773504273504195</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -4677,7 +4681,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+      <c r="A220">
         <v>1</v>
       </c>
       <c r="B220">
@@ -4687,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="1">
-        <v>0.96994658119658095</v>
+        <v>0.96417735042734998</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -4697,7 +4701,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+      <c r="A221">
         <v>1</v>
       </c>
       <c r="B221">
@@ -4707,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="1">
-        <v>0.96997863247863203</v>
+        <v>0.96420940170940095</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -4717,7 +4721,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+      <c r="A222">
         <v>1</v>
       </c>
       <c r="B222">
@@ -4727,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="1">
-        <v>0.97168803418803396</v>
+        <v>0.96842948717948696</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -4737,7 +4741,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+      <c r="A223">
         <v>1</v>
       </c>
       <c r="B223">
@@ -4747,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="E223" s="1">
-        <v>0.97168803418803396</v>
+        <v>0.96842948717948696</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -4757,7 +4761,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+      <c r="A224">
         <v>1</v>
       </c>
       <c r="B224">
@@ -4767,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="E224" s="1">
-        <v>0.97721153846153797</v>
+        <v>0.97414529914529902</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -4777,7 +4781,7 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+      <c r="A225">
         <v>1</v>
       </c>
       <c r="B225">
@@ -4787,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="E225" s="1">
-        <v>0.97723290598290602</v>
+        <v>0.97416666666666596</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -4797,7 +4801,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+      <c r="A226">
         <v>1</v>
       </c>
       <c r="B226">
@@ -4807,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="E226" s="1">
-        <v>0.97745726495726404</v>
+        <v>0.97439102564102498</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -4817,7 +4821,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+      <c r="A227">
         <v>1</v>
       </c>
       <c r="B227">
@@ -4827,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="1">
-        <v>0.97795940170940099</v>
+        <v>0.97490384615384595</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -4837,7 +4841,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+      <c r="A228">
         <v>1</v>
       </c>
       <c r="B228">
@@ -4847,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="E228" s="1">
-        <v>0.97795940170940099</v>
+        <v>0.97490384615384595</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -4857,7 +4861,7 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+      <c r="A229">
         <v>1</v>
       </c>
       <c r="B229">
@@ -4867,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="1">
-        <v>0.97798076923076904</v>
+        <v>0.97492521367521301</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -4877,7 +4881,7 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+      <c r="A230">
         <v>1</v>
       </c>
       <c r="B230">
@@ -4887,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="E230" s="1">
-        <v>0.97955128205128195</v>
+        <v>0.97769230769230697</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -4897,7 +4901,7 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+      <c r="A231">
         <v>1</v>
       </c>
       <c r="B231">
@@ -4907,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E231" s="1">
-        <v>0.97955128205128195</v>
+        <v>0.97769230769230697</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -4917,7 +4921,7 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
+      <c r="A232">
         <v>1</v>
       </c>
       <c r="B232">
@@ -4927,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="E232" s="1">
-        <v>0.98065170940170898</v>
+        <v>0.97901709401709403</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -4937,7 +4941,7 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
+      <c r="A233">
         <v>1</v>
       </c>
       <c r="B233">
@@ -4947,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="E233" s="1">
-        <v>0.98082264957264897</v>
+        <v>0.97918803418803402</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -4957,7 +4961,7 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+      <c r="A234">
         <v>1</v>
       </c>
       <c r="B234">
@@ -4967,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="1">
-        <v>0.98086538461538397</v>
+        <v>0.97923076923076902</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -4977,7 +4981,7 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
+      <c r="A235">
         <v>1</v>
       </c>
       <c r="B235">
@@ -4987,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="E235" s="1">
-        <v>0.98086538461538397</v>
+        <v>0.97923076923076902</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -4997,7 +5001,7 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
+      <c r="A236">
         <v>1</v>
       </c>
       <c r="B236">
@@ -5007,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="E236" s="1">
-        <v>0.98086538461538397</v>
+        <v>0.97923076923076902</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -5017,7 +5021,7 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
+      <c r="A237">
         <v>1</v>
       </c>
       <c r="B237">
@@ -5027,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="E237" s="1">
-        <v>0.98086538461538397</v>
+        <v>0.97923076923076902</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -5037,7 +5041,7 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
+      <c r="A238">
         <v>1</v>
       </c>
       <c r="B238">
@@ -5047,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="1">
-        <v>0.98086538461538397</v>
+        <v>0.97923076923076902</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -5057,7 +5061,7 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
+      <c r="A239">
         <v>1</v>
       </c>
       <c r="B239">
@@ -5067,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="1">
-        <v>0.98089743589743505</v>
+        <v>0.97926282051281999</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -5077,7 +5081,7 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
+      <c r="A240">
         <v>1</v>
       </c>
       <c r="B240">
@@ -5087,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="E240" s="1">
-        <v>0.98089743589743505</v>
+        <v>0.97926282051281999</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -5097,7 +5101,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
+      <c r="A241">
         <v>1</v>
       </c>
       <c r="B241">
@@ -5107,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="E241" s="1">
-        <v>0.98089743589743505</v>
+        <v>0.97926282051281999</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -5117,7 +5121,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+      <c r="A242">
         <v>1</v>
       </c>
       <c r="B242">
@@ -5127,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="1">
-        <v>0.98420940170940097</v>
+        <v>0.98327991452991403</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -5137,7 +5141,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+      <c r="A243">
         <v>1</v>
       </c>
       <c r="B243">
@@ -5147,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="E243" s="1">
-        <v>0.98420940170940097</v>
+        <v>0.98327991452991403</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -5157,7 +5161,7 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+      <c r="A244">
         <v>1</v>
       </c>
       <c r="B244">
@@ -5167,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="E244" s="1">
-        <v>0.98420940170940097</v>
+        <v>0.98327991452991403</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -5177,7 +5181,7 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+      <c r="A245">
         <v>1</v>
       </c>
       <c r="B245">
@@ -5187,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="E245" s="1">
-        <v>0.98423076923076902</v>
+        <v>0.98330128205128198</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -5197,7 +5201,7 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+      <c r="A246">
         <v>1</v>
       </c>
       <c r="B246">
@@ -5207,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="E246" s="1">
-        <v>0.98423076923076902</v>
+        <v>0.98330128205128198</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -5217,7 +5221,7 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+      <c r="A247">
         <v>1</v>
       </c>
       <c r="B247">
@@ -5227,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="E247" s="1">
-        <v>0.98423076923076902</v>
+        <v>0.98330128205128198</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -5237,7 +5241,7 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+      <c r="A248">
         <v>1</v>
       </c>
       <c r="B248">
@@ -5247,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="1">
-        <v>0.98423076923076902</v>
+        <v>0.98330128205128198</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -5257,7 +5261,7 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
+      <c r="A249">
         <v>1</v>
       </c>
       <c r="B249">
@@ -5267,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="E249" s="1">
-        <v>0.98435897435897401</v>
+        <v>0.98342948717948697</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -5277,7 +5281,7 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
+      <c r="A250">
         <v>1</v>
       </c>
       <c r="B250">
@@ -5287,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="E250" s="1">
-        <v>0.98441239316239304</v>
+        <v>0.983482905982906</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -5297,7 +5301,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
+      <c r="A251">
         <v>1</v>
       </c>
       <c r="B251">
@@ -5307,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="E251" s="1">
-        <v>0.98443376068375998</v>
+        <v>0.98350427350427305</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -5317,7 +5321,7 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
+      <c r="A252">
         <v>1</v>
       </c>
       <c r="B252">
@@ -5327,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="E252" s="1">
-        <v>0.98501068376068301</v>
+        <v>0.98410256410256403</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -5337,7 +5341,7 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+      <c r="A253">
         <v>1</v>
       </c>
       <c r="B253">
@@ -5347,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="1">
-        <v>0.98502136752136704</v>
+        <v>0.98411324786324705</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -5357,7 +5361,7 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
+      <c r="A254">
         <v>1</v>
       </c>
       <c r="B254">
@@ -5367,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="E254" s="1">
-        <v>0.98618589743589702</v>
+        <v>0.98540598290598203</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -5377,7 +5381,7 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
+      <c r="A255">
         <v>1</v>
       </c>
       <c r="B255">
@@ -5387,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="E255" s="1">
-        <v>0.98618589743589702</v>
+        <v>0.98540598290598203</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -5397,7 +5401,7 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
+      <c r="A256">
         <v>1</v>
       </c>
       <c r="B256">
@@ -5407,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="1">
-        <v>0.98618589743589702</v>
+        <v>0.98540598290598203</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -5417,7 +5421,7 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
+      <c r="A257">
         <v>1</v>
       </c>
       <c r="B257">
